--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9929822216734483</v>
+        <v>1.009680896579155</v>
       </c>
       <c r="D2">
-        <v>1.012991757397992</v>
+        <v>1.026900241533222</v>
       </c>
       <c r="E2">
-        <v>0.9979439861840084</v>
+        <v>1.022655303412981</v>
       </c>
       <c r="F2">
-        <v>1.001395636215212</v>
+        <v>1.02995245410505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042118953972835</v>
+        <v>1.051306485706111</v>
       </c>
       <c r="J2">
-        <v>1.015374878686143</v>
+        <v>1.031575859524989</v>
       </c>
       <c r="K2">
-        <v>1.024273015611383</v>
+        <v>1.037997114557347</v>
       </c>
       <c r="L2">
-        <v>1.00943203905667</v>
+        <v>1.033807784910203</v>
       </c>
       <c r="M2">
-        <v>1.012835561792347</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.041009697813496</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001855353104776</v>
+        <v>1.016897421525756</v>
       </c>
       <c r="D3">
-        <v>1.019961083746064</v>
+        <v>1.032460074141959</v>
       </c>
       <c r="E3">
-        <v>1.005638938991372</v>
+        <v>1.028876117494679</v>
       </c>
       <c r="F3">
-        <v>1.010495963111971</v>
+        <v>1.036597039610191</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045683834959253</v>
+        <v>1.053814589129988</v>
       </c>
       <c r="J3">
-        <v>1.022295566793526</v>
+        <v>1.036937810167467</v>
       </c>
       <c r="K3">
-        <v>1.030344773751881</v>
+        <v>1.042693808270184</v>
       </c>
       <c r="L3">
-        <v>1.016200173420509</v>
+        <v>1.039152387993084</v>
       </c>
       <c r="M3">
-        <v>1.020996284747431</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.046782126474019</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007382983159588</v>
+        <v>1.021431583596397</v>
       </c>
       <c r="D4">
-        <v>1.02430534396518</v>
+        <v>1.035954381069107</v>
       </c>
       <c r="E4">
-        <v>1.010432789209187</v>
+        <v>1.03279050018016</v>
       </c>
       <c r="F4">
-        <v>1.01617291241164</v>
+        <v>1.040778843910972</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047889181568579</v>
+        <v>1.055375424808379</v>
       </c>
       <c r="J4">
-        <v>1.026599698570175</v>
+        <v>1.040302513257316</v>
       </c>
       <c r="K4">
-        <v>1.034119014633632</v>
+        <v>1.045637402067061</v>
       </c>
       <c r="L4">
-        <v>1.020406909473805</v>
+        <v>1.04250864692355</v>
       </c>
       <c r="M4">
-        <v>1.026079985902511</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.050408808058372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009659107294079</v>
+        <v>1.023307076137997</v>
       </c>
       <c r="D5">
-        <v>1.026094683346614</v>
+        <v>1.037399899237214</v>
       </c>
       <c r="E5">
-        <v>1.012406711289544</v>
+        <v>1.034410943971499</v>
       </c>
       <c r="F5">
-        <v>1.018512357145174</v>
+        <v>1.042510183394211</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04879351200755</v>
+        <v>1.056017373642624</v>
       </c>
       <c r="J5">
-        <v>1.028370228258057</v>
+        <v>1.041693198030238</v>
       </c>
       <c r="K5">
-        <v>1.035671079458338</v>
+        <v>1.046853134872725</v>
       </c>
       <c r="L5">
-        <v>1.022136764978694</v>
+        <v>1.043896420582322</v>
       </c>
       <c r="M5">
-        <v>1.028173242019212</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.051908820116174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010038577001893</v>
+        <v>1.023620229370063</v>
       </c>
       <c r="D6">
-        <v>1.026393022821138</v>
+        <v>1.037641264864963</v>
       </c>
       <c r="E6">
-        <v>1.012735792967359</v>
+        <v>1.034681586368122</v>
       </c>
       <c r="F6">
-        <v>1.018902490579987</v>
+        <v>1.042799358703323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048944056085693</v>
+        <v>1.056124342938227</v>
       </c>
       <c r="J6">
-        <v>1.028665299314283</v>
+        <v>1.041925337178662</v>
       </c>
       <c r="K6">
-        <v>1.035929712089668</v>
+        <v>1.047056016581483</v>
       </c>
       <c r="L6">
-        <v>1.022425021367886</v>
+        <v>1.04412810766695</v>
       </c>
       <c r="M6">
-        <v>1.028522219170941</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.052159270058625</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007413579875963</v>
+        <v>1.021456762320243</v>
       </c>
       <c r="D7">
-        <v>1.024329395309447</v>
+        <v>1.035973786884039</v>
       </c>
       <c r="E7">
-        <v>1.010459323910919</v>
+        <v>1.03281224974796</v>
       </c>
       <c r="F7">
-        <v>1.016204353079169</v>
+        <v>1.040802081156027</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047901353025778</v>
+        <v>1.055384057658421</v>
       </c>
       <c r="J7">
-        <v>1.026623506036868</v>
+        <v>1.040321187721228</v>
       </c>
       <c r="K7">
-        <v>1.034139886493938</v>
+        <v>1.04565373083073</v>
       </c>
       <c r="L7">
-        <v>1.020430172439619</v>
+        <v>1.042527280012627</v>
       </c>
       <c r="M7">
-        <v>1.026108124752532</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.050428946459137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9960274626937168</v>
+        <v>1.012148891865324</v>
       </c>
       <c r="D8">
-        <v>1.01538296942275</v>
+        <v>1.028801373099565</v>
       </c>
       <c r="E8">
-        <v>1.000584777797358</v>
+        <v>1.024781489986978</v>
       </c>
       <c r="F8">
-        <v>1.004517176967429</v>
+        <v>1.032223322042255</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043345649019942</v>
+        <v>1.052167362469619</v>
       </c>
       <c r="J8">
-        <v>1.017751530753207</v>
+        <v>1.033410455675001</v>
       </c>
       <c r="K8">
-        <v>1.026358523527732</v>
+        <v>1.03960484767981</v>
       </c>
       <c r="L8">
-        <v>1.011756833718498</v>
+        <v>1.035635925506746</v>
       </c>
       <c r="M8">
-        <v>1.015636305922125</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.042983805746198</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9741441968215473</v>
+        <v>0.9946233136771752</v>
       </c>
       <c r="D9">
-        <v>0.9982177617339143</v>
+        <v>1.015310476379228</v>
       </c>
       <c r="E9">
-        <v>0.9816133887744907</v>
+        <v>1.009712209944394</v>
       </c>
       <c r="F9">
-        <v>0.9821214466363317</v>
+        <v>1.016131635807593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034465678082443</v>
+        <v>1.045992266156273</v>
       </c>
       <c r="J9">
-        <v>1.000644231832444</v>
+        <v>1.020367375783964</v>
       </c>
       <c r="K9">
-        <v>1.011339820843716</v>
+        <v>1.028159941352814</v>
       </c>
       <c r="L9">
-        <v>0.9950119904594416</v>
+        <v>1.022649654372642</v>
       </c>
       <c r="M9">
-        <v>0.9955114076763321</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.028968300073977</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.958032090997037</v>
+        <v>0.9820476190837664</v>
       </c>
       <c r="D10">
-        <v>0.9856117745647056</v>
+        <v>1.00564779956969</v>
       </c>
       <c r="E10">
-        <v>0.9676587165531114</v>
+        <v>0.9989412504326131</v>
       </c>
       <c r="F10">
-        <v>0.9656805149534099</v>
+        <v>1.004633410894953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027847534298868</v>
+        <v>1.041485489197795</v>
       </c>
       <c r="J10">
-        <v>0.9880157676606054</v>
+        <v>1.010992067760525</v>
       </c>
       <c r="K10">
-        <v>1.00024576488052</v>
+        <v>1.019915824537253</v>
       </c>
       <c r="L10">
-        <v>0.9826375311742128</v>
+        <v>1.013329647278435</v>
       </c>
       <c r="M10">
-        <v>0.9806983552088909</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.018919508596625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9506095908329933</v>
+        <v>0.9763550169226283</v>
       </c>
       <c r="D11">
-        <v>0.9798155282442674</v>
+        <v>1.001280221366187</v>
       </c>
       <c r="E11">
-        <v>0.9612357927435077</v>
+        <v>0.99407741509933</v>
       </c>
       <c r="F11">
-        <v>0.9581188947899519</v>
+        <v>0.9994418753926984</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.024781068533035</v>
+        <v>1.039428667563329</v>
       </c>
       <c r="J11">
-        <v>0.9821918791060911</v>
+        <v>1.006745645847813</v>
       </c>
       <c r="K11">
-        <v>0.9951284040593102</v>
+        <v>1.016178034904581</v>
       </c>
       <c r="L11">
-        <v>0.976927740297028</v>
+        <v>1.009111893721833</v>
       </c>
       <c r="M11">
-        <v>0.9738763407894333</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.014374324807215</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9477766520785055</v>
+        <v>0.9741998790859566</v>
       </c>
       <c r="D12">
-        <v>0.977605284562056</v>
+        <v>0.9996278855163981</v>
       </c>
       <c r="E12">
-        <v>0.9587854745569431</v>
+        <v>0.9922379864368785</v>
       </c>
       <c r="F12">
-        <v>0.9552347971997546</v>
+        <v>0.9974786106046946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023608189127809</v>
+        <v>1.038647585743347</v>
       </c>
       <c r="J12">
-        <v>0.9799683083625369</v>
+        <v>1.005137755394276</v>
       </c>
       <c r="K12">
-        <v>0.9931744873382586</v>
+        <v>1.014762218126434</v>
       </c>
       <c r="L12">
-        <v>0.9747472967075486</v>
+        <v>1.007515420707313</v>
       </c>
       <c r="M12">
-        <v>0.9712729962327923</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.012654276407136</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9483879234153968</v>
+        <v>0.9746640643574597</v>
       </c>
       <c r="D13">
-        <v>0.9780820987746384</v>
+        <v>0.9999837183742363</v>
       </c>
       <c r="E13">
-        <v>0.9593141319525728</v>
+        <v>0.9926340815625898</v>
       </c>
       <c r="F13">
-        <v>0.9558570184085543</v>
+        <v>0.9979013680065769</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023861374990245</v>
+        <v>1.03881592559943</v>
       </c>
       <c r="J13">
-        <v>0.980448126513177</v>
+        <v>1.005484080962825</v>
       </c>
       <c r="K13">
-        <v>0.9935961209310202</v>
+        <v>1.015067195360697</v>
       </c>
       <c r="L13">
-        <v>0.9752178277898278</v>
+        <v>1.007859261363082</v>
       </c>
       <c r="M13">
-        <v>0.9718347072160453</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.013024715772972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9503770251242004</v>
+        <v>0.9761777237461391</v>
       </c>
       <c r="D14">
-        <v>0.9796340390327876</v>
+        <v>1.001144266452992</v>
       </c>
       <c r="E14">
-        <v>0.9610346135246305</v>
+        <v>0.9939260532461726</v>
       </c>
       <c r="F14">
-        <v>0.957882089562066</v>
+        <v>0.9992803215252001</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.024684832545258</v>
+        <v>1.039364459501491</v>
       </c>
       <c r="J14">
-        <v>0.9820093531040359</v>
+        <v>1.006613376595013</v>
       </c>
       <c r="K14">
-        <v>0.9949680147197335</v>
+        <v>1.016061576378049</v>
       </c>
       <c r="L14">
-        <v>0.976748763130333</v>
+        <v>1.008980552182576</v>
       </c>
       <c r="M14">
-        <v>0.9736626143859985</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.014232809399129</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9515922240644162</v>
+        <v>0.9771048398565951</v>
       </c>
       <c r="D15">
-        <v>0.9805824371477596</v>
+        <v>1.001855261801183</v>
       </c>
       <c r="E15">
-        <v>0.9620858589654681</v>
+        <v>0.9947176474597481</v>
       </c>
       <c r="F15">
-        <v>0.9591195198123367</v>
+        <v>1.000125221863941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025187582917827</v>
+        <v>1.039700124861691</v>
       </c>
       <c r="J15">
-        <v>0.9829630550504904</v>
+        <v>1.007305040265918</v>
       </c>
       <c r="K15">
-        <v>0.9958060485527808</v>
+        <v>1.016670541659009</v>
       </c>
       <c r="L15">
-        <v>0.9776839048486761</v>
+        <v>1.009667387608356</v>
       </c>
       <c r="M15">
-        <v>0.9747793916007748</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.014972862595904</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9585145820466857</v>
+        <v>0.9824199200432088</v>
       </c>
       <c r="D16">
-        <v>0.9859888073472912</v>
+        <v>1.00593359199553</v>
       </c>
       <c r="E16">
-        <v>0.9680763686997671</v>
+        <v>0.9992596081221852</v>
       </c>
       <c r="F16">
-        <v>0.9661723097831871</v>
+        <v>1.004973231648859</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028046515836115</v>
+        <v>1.041619670084802</v>
       </c>
       <c r="J16">
-        <v>0.9883942278819472</v>
+        <v>1.011269745102882</v>
       </c>
       <c r="K16">
-        <v>1.000578294734718</v>
+        <v>1.020160168307104</v>
       </c>
       <c r="L16">
-        <v>0.9830085160712307</v>
+        <v>1.013605526357631</v>
       </c>
       <c r="M16">
-        <v>0.9811418623178242</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.019216854098904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627316499335907</v>
+        <v>0.9856853972572144</v>
       </c>
       <c r="D17">
-        <v>0.9892854197448684</v>
+        <v>1.008441041096924</v>
       </c>
       <c r="E17">
-        <v>0.97172739356226</v>
+        <v>1.002053297891912</v>
       </c>
       <c r="F17">
-        <v>0.9704720844245567</v>
+        <v>1.007955345599506</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029783699142688</v>
+        <v>1.042794702878695</v>
       </c>
       <c r="J17">
-        <v>0.9917013662382521</v>
+        <v>1.013705000267547</v>
       </c>
       <c r="K17">
-        <v>1.003483959220856</v>
+        <v>1.022302669483027</v>
       </c>
       <c r="L17">
-        <v>0.9862499942072283</v>
+        <v>1.016025420886465</v>
       </c>
       <c r="M17">
-        <v>0.9850184409995547</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.021825311910083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9651490587008071</v>
+        <v>0.9875664987941022</v>
       </c>
       <c r="D18">
-        <v>0.9911761863857209</v>
+        <v>1.009886061633178</v>
       </c>
       <c r="E18">
-        <v>0.9738208320820004</v>
+        <v>1.003663721316914</v>
       </c>
       <c r="F18">
-        <v>0.9729380474527023</v>
+        <v>1.009674453869617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030777880537103</v>
+        <v>1.043470007002707</v>
       </c>
       <c r="J18">
-        <v>0.9935965730486276</v>
+        <v>1.015107600153668</v>
       </c>
       <c r="K18">
-        <v>1.005148988680913</v>
+        <v>1.023536303161134</v>
       </c>
       <c r="L18">
-        <v>0.9881072892534147</v>
+        <v>1.017419512416041</v>
       </c>
       <c r="M18">
-        <v>0.9872408487535805</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.023328257340963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9659663955200499</v>
+        <v>0.9882040028055015</v>
       </c>
       <c r="D19">
-        <v>0.991815624185559</v>
+        <v>1.010375871855191</v>
       </c>
       <c r="E19">
-        <v>0.9745287128695312</v>
+        <v>1.004209674206846</v>
       </c>
       <c r="F19">
-        <v>0.9737719923915551</v>
+        <v>1.010257264032953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031113734254569</v>
+        <v>1.043698595454908</v>
       </c>
       <c r="J19">
-        <v>0.9942372465633207</v>
+        <v>1.015582895054671</v>
       </c>
       <c r="K19">
-        <v>1.00571183104418</v>
+        <v>1.023954279960608</v>
       </c>
       <c r="L19">
-        <v>0.988735097975932</v>
+        <v>1.017891981065174</v>
       </c>
       <c r="M19">
-        <v>0.9879922830912119</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.023837655230611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9622836364361155</v>
+        <v>0.9853375070204875</v>
       </c>
       <c r="D20">
-        <v>0.9889350870263217</v>
+        <v>1.008173845650856</v>
       </c>
       <c r="E20">
-        <v>0.9713394606089915</v>
+        <v>1.001755554582902</v>
       </c>
       <c r="F20">
-        <v>0.9700151647521915</v>
+        <v>1.007637513639505</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029599314706406</v>
+        <v>1.042669683430746</v>
       </c>
       <c r="J20">
-        <v>0.9913500823871768</v>
+        <v>1.013445583166474</v>
       </c>
       <c r="K20">
-        <v>1.003175330543127</v>
+        <v>1.02207447457039</v>
       </c>
       <c r="L20">
-        <v>0.9859057142359173</v>
+        <v>1.015767604761602</v>
       </c>
       <c r="M20">
-        <v>0.984606580800428</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.021547382973656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9497934594908894</v>
+        <v>0.9757331414269287</v>
       </c>
       <c r="D21">
-        <v>0.9791786705475807</v>
+        <v>1.000803363917314</v>
       </c>
       <c r="E21">
-        <v>0.9605298232767847</v>
+        <v>0.9935465285749383</v>
       </c>
       <c r="F21">
-        <v>0.9572879173193248</v>
+        <v>0.9988752428878075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.024443312692478</v>
+        <v>1.039203412518172</v>
       </c>
       <c r="J21">
-        <v>0.9815513378411655</v>
+        <v>1.006281693095786</v>
       </c>
       <c r="K21">
-        <v>0.9945655459621804</v>
+        <v>1.0157695322908</v>
       </c>
       <c r="L21">
-        <v>0.9762996461100691</v>
+        <v>1.008651204160934</v>
       </c>
       <c r="M21">
-        <v>0.97312632819777</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013877955514946</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9414955211223109</v>
+        <v>0.9694572094152947</v>
       </c>
       <c r="D22">
-        <v>0.9727089251302211</v>
+        <v>0.9959940999431004</v>
       </c>
       <c r="E22">
-        <v>0.9533550740059239</v>
+        <v>0.9881938849832717</v>
       </c>
       <c r="F22">
-        <v>0.9488439303852994</v>
+        <v>0.9931624090191532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021003250490162</v>
+        <v>1.036924427035679</v>
       </c>
       <c r="J22">
-        <v>0.9750370324955266</v>
+        <v>1.001599055057116</v>
       </c>
       <c r="K22">
-        <v>0.9888411281695905</v>
+        <v>1.011645334398471</v>
       </c>
       <c r="L22">
-        <v>0.9699108879822612</v>
+        <v>1.004002908358067</v>
       </c>
       <c r="M22">
-        <v>0.9655017988069784</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008870547858454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9459400396562666</v>
+        <v>0.9728079865723346</v>
       </c>
       <c r="D23">
-        <v>0.9761729825802214</v>
+        <v>0.9985610835540383</v>
       </c>
       <c r="E23">
-        <v>0.957197267976074</v>
+        <v>0.9910505673733438</v>
       </c>
       <c r="F23">
-        <v>0.9533655762757767</v>
+        <v>0.9962112760081957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022847117747554</v>
+        <v>1.038142464926001</v>
       </c>
       <c r="J23">
-        <v>0.9785265582504595</v>
+        <v>1.00409924642052</v>
       </c>
       <c r="K23">
-        <v>0.99190756028187</v>
+        <v>1.013847625838205</v>
       </c>
       <c r="L23">
-        <v>0.9733333903805265</v>
+        <v>1.006484447094499</v>
       </c>
       <c r="M23">
-        <v>0.9695853602272881</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011543602324092</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9624862046302993</v>
+        <v>0.9854947763028709</v>
       </c>
       <c r="D24">
-        <v>0.9890934859985537</v>
+        <v>1.008294633770257</v>
       </c>
       <c r="E24">
-        <v>0.971514861962538</v>
+        <v>1.001890150754169</v>
       </c>
       <c r="F24">
-        <v>0.970221756298826</v>
+        <v>1.00778119076274</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02968268881462</v>
+        <v>1.042726205371989</v>
       </c>
       <c r="J24">
-        <v>0.9915089163601372</v>
+        <v>1.013562857543169</v>
       </c>
       <c r="K24">
-        <v>1.003314878196814</v>
+        <v>1.022177635469029</v>
       </c>
       <c r="L24">
-        <v>0.9860613822711235</v>
+        <v>1.01588415433601</v>
       </c>
       <c r="M24">
-        <v>0.9847928018096869</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.021673024147034</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9800451772968422</v>
+        <v>0.9993003911380413</v>
       </c>
       <c r="D25">
-        <v>1.00284200819045</v>
+        <v>1.018908410378816</v>
       </c>
       <c r="E25">
-        <v>0.9867275882054271</v>
+        <v>1.013727128290518</v>
       </c>
       <c r="F25">
-        <v>0.9881527139505455</v>
+        <v>1.020418318521569</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036874063148777</v>
+        <v>1.047653485248596</v>
       </c>
       <c r="J25">
-        <v>1.005263281896103</v>
+        <v>1.023851322872284</v>
       </c>
       <c r="K25">
-        <v>1.01539636526607</v>
+        <v>1.031220121113081</v>
       </c>
       <c r="L25">
-        <v>0.9995354958227621</v>
+        <v>1.026116021122705</v>
       </c>
       <c r="M25">
-        <v>1.000937770711707</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.0327077245083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009680896579155</v>
+        <v>1.05760193325069</v>
       </c>
       <c r="D2">
-        <v>1.026900241533222</v>
+        <v>1.06940425104495</v>
       </c>
       <c r="E2">
-        <v>1.022655303412981</v>
+        <v>1.065776184232979</v>
       </c>
       <c r="F2">
-        <v>1.02995245410505</v>
+        <v>1.077032101285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051306485706111</v>
+        <v>1.078879859530984</v>
       </c>
       <c r="J2">
-        <v>1.031575859524989</v>
+        <v>1.078186420515732</v>
       </c>
       <c r="K2">
-        <v>1.037997114557347</v>
+        <v>1.079974492067251</v>
       </c>
       <c r="L2">
-        <v>1.033807784910203</v>
+        <v>1.076389344668714</v>
       </c>
       <c r="M2">
-        <v>1.041009697813496</v>
+        <v>1.087513271705826</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016897421525756</v>
+        <v>1.063522466380916</v>
       </c>
       <c r="D3">
-        <v>1.032460074141959</v>
+        <v>1.074065806397483</v>
       </c>
       <c r="E3">
-        <v>1.028876117494679</v>
+        <v>1.070800897013726</v>
       </c>
       <c r="F3">
-        <v>1.036597039610191</v>
+        <v>1.082184121125306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053814589129988</v>
+        <v>1.081420050035804</v>
       </c>
       <c r="J3">
-        <v>1.036937810167467</v>
+        <v>1.082419460484956</v>
       </c>
       <c r="K3">
-        <v>1.042693808270184</v>
+        <v>1.083831224840268</v>
       </c>
       <c r="L3">
-        <v>1.039152387993084</v>
+        <v>1.080601451154589</v>
       </c>
       <c r="M3">
-        <v>1.046782126474019</v>
+        <v>1.091863297274611</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021431583596397</v>
+        <v>1.067263066248698</v>
       </c>
       <c r="D4">
-        <v>1.035954381069107</v>
+        <v>1.077013149353368</v>
       </c>
       <c r="E4">
-        <v>1.03279050018016</v>
+        <v>1.073979572380054</v>
       </c>
       <c r="F4">
-        <v>1.040778843910972</v>
+        <v>1.085443762714173</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055375424808379</v>
+        <v>1.083014689303586</v>
       </c>
       <c r="J4">
-        <v>1.040302513257316</v>
+        <v>1.085089760111248</v>
       </c>
       <c r="K4">
-        <v>1.045637402067061</v>
+        <v>1.086263130068088</v>
       </c>
       <c r="L4">
-        <v>1.04250864692355</v>
+        <v>1.083260167919341</v>
       </c>
       <c r="M4">
-        <v>1.050408808058372</v>
+        <v>1.094609752987567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023307076137997</v>
+        <v>1.068814916440152</v>
       </c>
       <c r="D5">
-        <v>1.037399899237214</v>
+        <v>1.078236365445173</v>
       </c>
       <c r="E5">
-        <v>1.034410943971499</v>
+        <v>1.075299218299398</v>
       </c>
       <c r="F5">
-        <v>1.042510183394211</v>
+        <v>1.086797125261439</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056017373642624</v>
+        <v>1.083673752558796</v>
       </c>
       <c r="J5">
-        <v>1.041693198030238</v>
+        <v>1.086196545059767</v>
       </c>
       <c r="K5">
-        <v>1.046853134872725</v>
+        <v>1.087270853058926</v>
       </c>
       <c r="L5">
-        <v>1.043896420582322</v>
+        <v>1.084362535125794</v>
       </c>
       <c r="M5">
-        <v>1.051908820116174</v>
+        <v>1.095748662009275</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023620229370063</v>
+        <v>1.06907429141227</v>
       </c>
       <c r="D6">
-        <v>1.037641264864963</v>
+        <v>1.07844083829204</v>
       </c>
       <c r="E6">
-        <v>1.034681586368122</v>
+        <v>1.075519835389384</v>
       </c>
       <c r="F6">
-        <v>1.042799358703323</v>
+        <v>1.087023385111566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056124342938227</v>
+        <v>1.083783759802439</v>
       </c>
       <c r="J6">
-        <v>1.041925337178662</v>
+        <v>1.086381470303678</v>
       </c>
       <c r="K6">
-        <v>1.047056016581483</v>
+        <v>1.087439211593352</v>
       </c>
       <c r="L6">
-        <v>1.04412810766695</v>
+        <v>1.08454674459641</v>
       </c>
       <c r="M6">
-        <v>1.052159270058625</v>
+        <v>1.095938987319596</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021456762320243</v>
+        <v>1.067283882275432</v>
       </c>
       <c r="D7">
-        <v>1.035973786884039</v>
+        <v>1.077029555435875</v>
       </c>
       <c r="E7">
-        <v>1.03281224974796</v>
+        <v>1.073997270126505</v>
       </c>
       <c r="F7">
-        <v>1.040802081156027</v>
+        <v>1.085461912226961</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055384057658421</v>
+        <v>1.083023539699284</v>
       </c>
       <c r="J7">
-        <v>1.040321187721228</v>
+        <v>1.085104610310194</v>
       </c>
       <c r="K7">
-        <v>1.04565373083073</v>
+        <v>1.086276652121521</v>
       </c>
       <c r="L7">
-        <v>1.042527280012627</v>
+        <v>1.083274957336346</v>
       </c>
       <c r="M7">
-        <v>1.050428946459137</v>
+        <v>1.094625032007346</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012148891865324</v>
+        <v>1.059622103563453</v>
       </c>
       <c r="D8">
-        <v>1.028801373099565</v>
+        <v>1.070994348289597</v>
       </c>
       <c r="E8">
-        <v>1.024781489986978</v>
+        <v>1.067489801679593</v>
       </c>
       <c r="F8">
-        <v>1.032223322042255</v>
+        <v>1.078789044611946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052167362469619</v>
+        <v>1.079748740142844</v>
       </c>
       <c r="J8">
-        <v>1.033410455675001</v>
+        <v>1.079631639143886</v>
       </c>
       <c r="K8">
-        <v>1.03960484767981</v>
+        <v>1.081291440854026</v>
       </c>
       <c r="L8">
-        <v>1.035635925506746</v>
+        <v>1.077827071027079</v>
       </c>
       <c r="M8">
-        <v>1.042983805746198</v>
+        <v>1.088997930046043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9946233136771752</v>
+        <v>1.04538341891461</v>
       </c>
       <c r="D9">
-        <v>1.015310476379228</v>
+        <v>1.059798750954037</v>
       </c>
       <c r="E9">
-        <v>1.009712209944394</v>
+        <v>1.055431488545034</v>
       </c>
       <c r="F9">
-        <v>1.016131635807593</v>
+        <v>1.06642770886567</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045992266156273</v>
+        <v>1.073582493057573</v>
       </c>
       <c r="J9">
-        <v>1.020367375783964</v>
+        <v>1.069429423378333</v>
       </c>
       <c r="K9">
-        <v>1.028159941352814</v>
+        <v>1.071990807964209</v>
       </c>
       <c r="L9">
-        <v>1.022649654372642</v>
+        <v>1.067684979087628</v>
       </c>
       <c r="M9">
-        <v>1.028968300073977</v>
+        <v>1.078527729450089</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9820476190837664</v>
+        <v>1.035325950119479</v>
       </c>
       <c r="D10">
-        <v>1.00564779956969</v>
+        <v>1.051908910201826</v>
       </c>
       <c r="E10">
-        <v>0.9989412504326131</v>
+        <v>1.046942124658845</v>
       </c>
       <c r="F10">
-        <v>1.004633410894953</v>
+        <v>1.057727388327628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041485489197795</v>
+        <v>1.069175169991869</v>
       </c>
       <c r="J10">
-        <v>1.010992067760525</v>
+        <v>1.062204853705919</v>
       </c>
       <c r="K10">
-        <v>1.019915824537253</v>
+        <v>1.065400182176996</v>
       </c>
       <c r="L10">
-        <v>1.013329647278435</v>
+        <v>1.060512572997254</v>
       </c>
       <c r="M10">
-        <v>1.018919508596625</v>
+        <v>1.071127116360154</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9763550169226283</v>
+        <v>1.030819711873886</v>
       </c>
       <c r="D11">
-        <v>1.001280221366187</v>
+        <v>1.048379257940556</v>
       </c>
       <c r="E11">
-        <v>0.99407741509933</v>
+        <v>1.043146131026215</v>
       </c>
       <c r="F11">
-        <v>0.9994418753926984</v>
+        <v>1.053837638857064</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039428667563329</v>
+        <v>1.067188835813372</v>
       </c>
       <c r="J11">
-        <v>1.006745645847813</v>
+        <v>1.058964275524683</v>
       </c>
       <c r="K11">
-        <v>1.016178034904581</v>
+        <v>1.062443057841109</v>
       </c>
       <c r="L11">
-        <v>1.009111893721833</v>
+        <v>1.057297798655277</v>
       </c>
       <c r="M11">
-        <v>1.014374324807215</v>
+        <v>1.067810984981701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9741998790859566</v>
+        <v>1.02912153727089</v>
       </c>
       <c r="D12">
-        <v>0.9996278855163981</v>
+        <v>1.047050017287395</v>
       </c>
       <c r="E12">
-        <v>0.9922379864368785</v>
+        <v>1.041716855707314</v>
       </c>
       <c r="F12">
-        <v>0.9974786106046946</v>
+        <v>1.052373149238318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038647585743347</v>
+        <v>1.066438598400583</v>
       </c>
       <c r="J12">
-        <v>1.005137755394276</v>
+        <v>1.05774258701215</v>
       </c>
       <c r="K12">
-        <v>1.014762218126434</v>
+        <v>1.061328110361135</v>
       </c>
       <c r="L12">
-        <v>1.007515420707313</v>
+        <v>1.056086211833682</v>
       </c>
       <c r="M12">
-        <v>1.012654276407136</v>
+        <v>1.066561340049701</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9746640643574597</v>
+        <v>1.029486931502476</v>
       </c>
       <c r="D13">
-        <v>0.9999837183742363</v>
+        <v>1.047335985767808</v>
       </c>
       <c r="E13">
-        <v>0.9926340815625898</v>
+        <v>1.042024333448121</v>
       </c>
       <c r="F13">
-        <v>0.9979013680065769</v>
+        <v>1.05268819863995</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03881592559943</v>
+        <v>1.066600101314815</v>
       </c>
       <c r="J13">
-        <v>1.005484080962825</v>
+        <v>1.058005476748471</v>
       </c>
       <c r="K13">
-        <v>1.015067195360697</v>
+        <v>1.061568036143147</v>
       </c>
       <c r="L13">
-        <v>1.007859261363082</v>
+        <v>1.056346910746593</v>
       </c>
       <c r="M13">
-        <v>1.013024715772972</v>
+        <v>1.06683022156295</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9761777237461391</v>
+        <v>1.030679847060565</v>
       </c>
       <c r="D14">
-        <v>1.001144266452992</v>
+        <v>1.048269760180974</v>
       </c>
       <c r="E14">
-        <v>0.9939260532461726</v>
+        <v>1.043028387436091</v>
       </c>
       <c r="F14">
-        <v>0.9992803215252001</v>
+        <v>1.053716992546863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039364459501491</v>
+        <v>1.067127078780379</v>
       </c>
       <c r="J14">
-        <v>1.006613376595013</v>
+        <v>1.058863664291087</v>
       </c>
       <c r="K14">
-        <v>1.016061576378049</v>
+        <v>1.062351239534946</v>
       </c>
       <c r="L14">
-        <v>1.008980552182576</v>
+        <v>1.057198011676134</v>
       </c>
       <c r="M14">
-        <v>1.014232809399129</v>
+        <v>1.067708060631668</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9771048398565951</v>
+        <v>1.031411562898831</v>
       </c>
       <c r="D15">
-        <v>1.001855261801183</v>
+        <v>1.048842645508814</v>
       </c>
       <c r="E15">
-        <v>0.9947176474597481</v>
+        <v>1.043644425242676</v>
       </c>
       <c r="F15">
-        <v>1.000125221863941</v>
+        <v>1.054348221009106</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039700124861691</v>
+        <v>1.067450098115642</v>
       </c>
       <c r="J15">
-        <v>1.007305040265918</v>
+        <v>1.059390002321035</v>
       </c>
       <c r="K15">
-        <v>1.016670541659009</v>
+        <v>1.062831573405473</v>
       </c>
       <c r="L15">
-        <v>1.009667387608356</v>
+        <v>1.057720052987005</v>
       </c>
       <c r="M15">
-        <v>1.014972862595904</v>
+        <v>1.068246521047739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9824199200432088</v>
+        <v>1.035621691306481</v>
       </c>
       <c r="D16">
-        <v>1.00593359199553</v>
+        <v>1.052140678792624</v>
       </c>
       <c r="E16">
-        <v>0.9992596081221852</v>
+        <v>1.047191419831637</v>
       </c>
       <c r="F16">
-        <v>1.004973231648859</v>
+        <v>1.057982852726799</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041619670084802</v>
+        <v>1.069305294835412</v>
       </c>
       <c r="J16">
-        <v>1.011269745102882</v>
+        <v>1.06241746080125</v>
       </c>
       <c r="K16">
-        <v>1.020160168307104</v>
+        <v>1.065594175029908</v>
       </c>
       <c r="L16">
-        <v>1.013605526357631</v>
+        <v>1.060723538146276</v>
       </c>
       <c r="M16">
-        <v>1.019216854098904</v>
+        <v>1.071344752376698</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9856853972572144</v>
+        <v>1.038220986731572</v>
       </c>
       <c r="D17">
-        <v>1.008441041096924</v>
+        <v>1.054178335328792</v>
       </c>
       <c r="E17">
-        <v>1.002053297891912</v>
+        <v>1.049383376394831</v>
       </c>
       <c r="F17">
-        <v>1.007955345599506</v>
+        <v>1.060229118064417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042794702878695</v>
+        <v>1.070447660176237</v>
       </c>
       <c r="J17">
-        <v>1.013705000267547</v>
+        <v>1.064285680447133</v>
       </c>
       <c r="K17">
-        <v>1.022302669483027</v>
+        <v>1.067298727255858</v>
       </c>
       <c r="L17">
-        <v>1.016025420886465</v>
+        <v>1.062577603863964</v>
       </c>
       <c r="M17">
-        <v>1.021825311910083</v>
+        <v>1.073257550508423</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9875664987941022</v>
+        <v>1.039722632316262</v>
       </c>
       <c r="D18">
-        <v>1.009886061633178</v>
+        <v>1.055356017041798</v>
       </c>
       <c r="E18">
-        <v>1.003663721316914</v>
+        <v>1.050650414544402</v>
       </c>
       <c r="F18">
-        <v>1.009674453869617</v>
+        <v>1.061527603004409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043470007002707</v>
+        <v>1.071106514681477</v>
       </c>
       <c r="J18">
-        <v>1.015107600153668</v>
+        <v>1.0653646278742</v>
       </c>
       <c r="K18">
-        <v>1.023536303161134</v>
+        <v>1.068283066113012</v>
       </c>
       <c r="L18">
-        <v>1.017419512416041</v>
+        <v>1.063648603444575</v>
       </c>
       <c r="M18">
-        <v>1.023328257340963</v>
+        <v>1.074362564449928</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9882040028055015</v>
+        <v>1.040232245695773</v>
       </c>
       <c r="D19">
-        <v>1.010375871855191</v>
+        <v>1.055755769138144</v>
       </c>
       <c r="E19">
-        <v>1.004209674206846</v>
+        <v>1.05108052822871</v>
       </c>
       <c r="F19">
-        <v>1.010257264032953</v>
+        <v>1.061968400902601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043698595454908</v>
+        <v>1.071329921053084</v>
       </c>
       <c r="J19">
-        <v>1.015582895054671</v>
+        <v>1.065730729545459</v>
       </c>
       <c r="K19">
-        <v>1.023954279960608</v>
+        <v>1.068617050740323</v>
       </c>
       <c r="L19">
-        <v>1.017891981065174</v>
+        <v>1.064012046364092</v>
       </c>
       <c r="M19">
-        <v>1.023837655230611</v>
+        <v>1.074737564928452</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9853375070204875</v>
+        <v>1.037943615895238</v>
       </c>
       <c r="D20">
-        <v>1.008173845650856</v>
+        <v>1.053960844189914</v>
       </c>
       <c r="E20">
-        <v>1.001755554582902</v>
+        <v>1.049149397578805</v>
       </c>
       <c r="F20">
-        <v>1.007637513639505</v>
+        <v>1.059989336471061</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042669683430746</v>
+        <v>1.07032587258998</v>
       </c>
       <c r="J20">
-        <v>1.013445583166474</v>
+        <v>1.064086358234131</v>
       </c>
       <c r="K20">
-        <v>1.02207447457039</v>
+        <v>1.067116875728712</v>
       </c>
       <c r="L20">
-        <v>1.015767604761602</v>
+        <v>1.062379768153579</v>
       </c>
       <c r="M20">
-        <v>1.021547382973656</v>
+        <v>1.073053438720192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9757331414269287</v>
+        <v>1.030329249372443</v>
       </c>
       <c r="D21">
-        <v>1.000803363917314</v>
+        <v>1.047995298237398</v>
       </c>
       <c r="E21">
-        <v>0.9935465285749383</v>
+        <v>1.042733261143026</v>
       </c>
       <c r="F21">
-        <v>0.9988752428878075</v>
+        <v>1.053414591938033</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039203412518172</v>
+        <v>1.066972246103466</v>
       </c>
       <c r="J21">
-        <v>1.006281693095786</v>
+        <v>1.058611455693036</v>
       </c>
       <c r="K21">
-        <v>1.0157695322908</v>
+        <v>1.062121070847146</v>
       </c>
       <c r="L21">
-        <v>1.008651204160934</v>
+        <v>1.056947875348327</v>
       </c>
       <c r="M21">
-        <v>1.013877955514946</v>
+        <v>1.067450062129782</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9694572094152947</v>
+        <v>1.025399951602846</v>
       </c>
       <c r="D22">
-        <v>0.9959940999431004</v>
+        <v>1.044138745648117</v>
       </c>
       <c r="E22">
-        <v>0.9881938849832717</v>
+        <v>1.038586968124138</v>
       </c>
       <c r="F22">
-        <v>0.9931624090191532</v>
+        <v>1.049166308650725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036924427035679</v>
+        <v>1.064791400279522</v>
       </c>
       <c r="J22">
-        <v>1.001599055057116</v>
+        <v>1.055064428747207</v>
       </c>
       <c r="K22">
-        <v>1.011645334398471</v>
+        <v>1.058883743681952</v>
       </c>
       <c r="L22">
-        <v>1.004002908358067</v>
+        <v>1.053430900953704</v>
       </c>
       <c r="M22">
-        <v>1.008870547858454</v>
+        <v>1.063822883742735</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9728079865723346</v>
+        <v>1.02802709508006</v>
       </c>
       <c r="D23">
-        <v>0.9985610835540383</v>
+        <v>1.046193615098567</v>
       </c>
       <c r="E23">
-        <v>0.9910505673733438</v>
+        <v>1.040796076988091</v>
       </c>
       <c r="F23">
-        <v>0.9962112760081957</v>
+        <v>1.051429709070425</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038142464926001</v>
+        <v>1.06595461647526</v>
       </c>
       <c r="J23">
-        <v>1.00409924642052</v>
+        <v>1.056955105401457</v>
       </c>
       <c r="K23">
-        <v>1.013847625838205</v>
+        <v>1.060609400476964</v>
       </c>
       <c r="L23">
-        <v>1.006484447094499</v>
+        <v>1.055305348572707</v>
       </c>
       <c r="M23">
-        <v>1.011543602324092</v>
+        <v>1.065755988585747</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9854947763028709</v>
+        <v>1.038068992462554</v>
       </c>
       <c r="D24">
-        <v>1.008294633770257</v>
+        <v>1.054059152515437</v>
       </c>
       <c r="E24">
-        <v>1.001890150754169</v>
+        <v>1.04925515795991</v>
       </c>
       <c r="F24">
-        <v>1.00778119076274</v>
+        <v>1.060097719588097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042726205371989</v>
+        <v>1.070380926182978</v>
       </c>
       <c r="J24">
-        <v>1.013562857543169</v>
+        <v>1.064176456511089</v>
       </c>
       <c r="K24">
-        <v>1.022177635469029</v>
+        <v>1.0671990771179</v>
       </c>
       <c r="L24">
-        <v>1.01588415433601</v>
+        <v>1.062469193795026</v>
       </c>
       <c r="M24">
-        <v>1.021673024147034</v>
+        <v>1.073145701000794</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9993003911380413</v>
+        <v>1.049158633728951</v>
       </c>
       <c r="D25">
-        <v>1.018908410378816</v>
+        <v>1.062764346389421</v>
       </c>
       <c r="E25">
-        <v>1.013727128290518</v>
+        <v>1.05862411209971</v>
       </c>
       <c r="F25">
-        <v>1.020418318521569</v>
+        <v>1.069700156100093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047653485248596</v>
+        <v>1.07522648657678</v>
       </c>
       <c r="J25">
-        <v>1.023851322872284</v>
+        <v>1.07213776793735</v>
       </c>
       <c r="K25">
-        <v>1.031220121113081</v>
+        <v>1.074460635271692</v>
       </c>
       <c r="L25">
-        <v>1.026116021122705</v>
+        <v>1.0703757599316</v>
       </c>
       <c r="M25">
-        <v>1.0327077245083</v>
+        <v>1.081304909882459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.05760193325069</v>
+        <v>1.080686369548288</v>
       </c>
       <c r="D2">
-        <v>1.06940425104495</v>
+        <v>1.081314231955256</v>
       </c>
       <c r="E2">
-        <v>1.065776184232979</v>
+        <v>1.083625367113356</v>
       </c>
       <c r="F2">
-        <v>1.077032101285</v>
+        <v>1.093730810571756</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078879859530984</v>
+        <v>1.067001903477116</v>
       </c>
       <c r="J2">
-        <v>1.078186420515732</v>
+        <v>1.085564674350209</v>
       </c>
       <c r="K2">
-        <v>1.079974492067251</v>
+        <v>1.083985378331075</v>
       </c>
       <c r="L2">
-        <v>1.076389344668714</v>
+        <v>1.086290496804683</v>
       </c>
       <c r="M2">
-        <v>1.087513271705826</v>
+        <v>1.096369954386104</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.063522466380916</v>
+        <v>1.081900152883505</v>
       </c>
       <c r="D3">
-        <v>1.074065806397483</v>
+        <v>1.082279443728756</v>
       </c>
       <c r="E3">
-        <v>1.070800897013726</v>
+        <v>1.084690541199117</v>
       </c>
       <c r="F3">
-        <v>1.082184121125306</v>
+        <v>1.094823840609915</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.081420050035804</v>
+        <v>1.06744291583022</v>
       </c>
       <c r="J3">
-        <v>1.082419460484956</v>
+        <v>1.08643865572687</v>
       </c>
       <c r="K3">
-        <v>1.083831224840268</v>
+        <v>1.084768655942776</v>
       </c>
       <c r="L3">
-        <v>1.080601451154589</v>
+        <v>1.087173930016216</v>
       </c>
       <c r="M3">
-        <v>1.091863297274611</v>
+        <v>1.097283056065762</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.067263066248698</v>
+        <v>1.082685458684607</v>
       </c>
       <c r="D4">
-        <v>1.077013149353368</v>
+        <v>1.082903842965748</v>
       </c>
       <c r="E4">
-        <v>1.073979572380054</v>
+        <v>1.085379832326296</v>
       </c>
       <c r="F4">
-        <v>1.085443762714173</v>
+        <v>1.095531235005786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.083014689303586</v>
+        <v>1.067726974172488</v>
       </c>
       <c r="J4">
-        <v>1.085089760111248</v>
+        <v>1.087003501696314</v>
       </c>
       <c r="K4">
-        <v>1.086263130068088</v>
+        <v>1.085274706203559</v>
       </c>
       <c r="L4">
-        <v>1.083260167919341</v>
+        <v>1.087745016320181</v>
       </c>
       <c r="M4">
-        <v>1.094609752987567</v>
+        <v>1.09787342173235</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.068814916440152</v>
+        <v>1.083015580419484</v>
       </c>
       <c r="D5">
-        <v>1.078236365445173</v>
+        <v>1.083166303299428</v>
       </c>
       <c r="E5">
-        <v>1.075299218299398</v>
+        <v>1.085669623548776</v>
       </c>
       <c r="F5">
-        <v>1.086797125261439</v>
+        <v>1.095828655638713</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.083673752558796</v>
+        <v>1.067846080079299</v>
       </c>
       <c r="J5">
-        <v>1.086196545059767</v>
+        <v>1.087240801340487</v>
       </c>
       <c r="K5">
-        <v>1.087270853058926</v>
+        <v>1.085487262998473</v>
       </c>
       <c r="L5">
-        <v>1.084362535125794</v>
+        <v>1.087984969089828</v>
       </c>
       <c r="M5">
-        <v>1.095748662009275</v>
+        <v>1.09812149911814</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.06907429141227</v>
+        <v>1.083071008133467</v>
       </c>
       <c r="D6">
-        <v>1.07844083829204</v>
+        <v>1.083210369384688</v>
       </c>
       <c r="E6">
-        <v>1.075519835389384</v>
+        <v>1.085718281567111</v>
       </c>
       <c r="F6">
-        <v>1.087023385111566</v>
+        <v>1.095878595770215</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.083783759802439</v>
+        <v>1.067866060190167</v>
       </c>
       <c r="J6">
-        <v>1.086381470303678</v>
+        <v>1.087280635542254</v>
       </c>
       <c r="K6">
-        <v>1.087439211593352</v>
+        <v>1.08552294128843</v>
       </c>
       <c r="L6">
-        <v>1.08454674459641</v>
+        <v>1.088025250501551</v>
       </c>
       <c r="M6">
-        <v>1.095938987319596</v>
+        <v>1.098163145835498</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.067283882275432</v>
+        <v>1.082689869867342</v>
       </c>
       <c r="D7">
-        <v>1.077029555435875</v>
+        <v>1.082907350118672</v>
       </c>
       <c r="E7">
-        <v>1.073997270126505</v>
+        <v>1.085383704477893</v>
       </c>
       <c r="F7">
-        <v>1.085461912226961</v>
+        <v>1.09553520902811</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.083023539699284</v>
+        <v>1.067728566897663</v>
       </c>
       <c r="J7">
-        <v>1.085104610310194</v>
+        <v>1.087006673139734</v>
       </c>
       <c r="K7">
-        <v>1.086276652121521</v>
+        <v>1.085277547130777</v>
       </c>
       <c r="L7">
-        <v>1.083274957336346</v>
+        <v>1.087748223098242</v>
       </c>
       <c r="M7">
-        <v>1.094625032007346</v>
+        <v>1.097876736995063</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.059622103563453</v>
+        <v>1.081096593495041</v>
       </c>
       <c r="D8">
-        <v>1.070994348289597</v>
+        <v>1.081640462703723</v>
       </c>
       <c r="E8">
-        <v>1.067489801679593</v>
+        <v>1.083985337293443</v>
       </c>
       <c r="F8">
-        <v>1.078789044611946</v>
+        <v>1.094100178512695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.079748740142844</v>
+        <v>1.067151216395424</v>
       </c>
       <c r="J8">
-        <v>1.079631639143886</v>
+        <v>1.085860181410224</v>
       </c>
       <c r="K8">
-        <v>1.081291440854026</v>
+        <v>1.084250253129277</v>
       </c>
       <c r="L8">
-        <v>1.077827071027079</v>
+        <v>1.086589172355007</v>
       </c>
       <c r="M8">
-        <v>1.088997930046043</v>
+        <v>1.096678639562402</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.04538341891461</v>
+        <v>1.078288256736938</v>
       </c>
       <c r="D9">
-        <v>1.059798750954037</v>
+        <v>1.079406814918398</v>
       </c>
       <c r="E9">
-        <v>1.055431488545034</v>
+        <v>1.081521603372533</v>
       </c>
       <c r="F9">
-        <v>1.06642770886567</v>
+        <v>1.091572442080404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073582493057573</v>
+        <v>1.066123826274</v>
       </c>
       <c r="J9">
-        <v>1.069429423378333</v>
+        <v>1.083834683858763</v>
       </c>
       <c r="K9">
-        <v>1.071990807964209</v>
+        <v>1.082434005563908</v>
       </c>
       <c r="L9">
-        <v>1.067684979087628</v>
+        <v>1.084542500478427</v>
       </c>
       <c r="M9">
-        <v>1.078527729450089</v>
+        <v>1.09456379083628</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.035325950119479</v>
+        <v>1.076415412255022</v>
       </c>
       <c r="D10">
-        <v>1.051908910201826</v>
+        <v>1.077916851078963</v>
       </c>
       <c r="E10">
-        <v>1.046942124658845</v>
+        <v>1.079879313134068</v>
       </c>
       <c r="F10">
-        <v>1.057727388327628</v>
+        <v>1.089887890111293</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069175169991869</v>
+        <v>1.065432128266146</v>
       </c>
       <c r="J10">
-        <v>1.062204853705919</v>
+        <v>1.082480780453501</v>
       </c>
       <c r="K10">
-        <v>1.065400182176996</v>
+        <v>1.081219080078008</v>
       </c>
       <c r="L10">
-        <v>1.060512572997254</v>
+        <v>1.08317512902092</v>
       </c>
       <c r="M10">
-        <v>1.071127116360154</v>
+        <v>1.093151392348075</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.030819711873886</v>
+        <v>1.075604280900415</v>
       </c>
       <c r="D11">
-        <v>1.048379257940556</v>
+        <v>1.077271465728615</v>
       </c>
       <c r="E11">
-        <v>1.043146131026215</v>
+        <v>1.079168218982718</v>
       </c>
       <c r="F11">
-        <v>1.053837638857064</v>
+        <v>1.089158592844757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067188835813372</v>
+        <v>1.065131001947356</v>
       </c>
       <c r="J11">
-        <v>1.058964275524683</v>
+        <v>1.081893665542158</v>
       </c>
       <c r="K11">
-        <v>1.062443057841109</v>
+        <v>1.080692022600123</v>
       </c>
       <c r="L11">
-        <v>1.057297798655277</v>
+        <v>1.082582337180067</v>
       </c>
       <c r="M11">
-        <v>1.067810984981701</v>
+        <v>1.092539204261199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.02912153727089</v>
+        <v>1.075302961965503</v>
       </c>
       <c r="D12">
-        <v>1.047050017287395</v>
+        <v>1.077031706740822</v>
       </c>
       <c r="E12">
-        <v>1.041716855707314</v>
+        <v>1.078904090117167</v>
       </c>
       <c r="F12">
-        <v>1.052373149238318</v>
+        <v>1.088887717047013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066438598400583</v>
+        <v>1.065018906653416</v>
       </c>
       <c r="J12">
-        <v>1.05774258701215</v>
+        <v>1.081675453662157</v>
       </c>
       <c r="K12">
-        <v>1.061328110361135</v>
+        <v>1.080496100757733</v>
       </c>
       <c r="L12">
-        <v>1.056086211833682</v>
+        <v>1.08236203999572</v>
       </c>
       <c r="M12">
-        <v>1.066561340049701</v>
+        <v>1.092311717611418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.029486931502476</v>
+        <v>1.075367597227631</v>
       </c>
       <c r="D13">
-        <v>1.047335985767808</v>
+        <v>1.077083137416699</v>
       </c>
       <c r="E13">
-        <v>1.042024333448121</v>
+        <v>1.078960746529893</v>
       </c>
       <c r="F13">
-        <v>1.05268819863995</v>
+        <v>1.088945820042462</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066600101314815</v>
+        <v>1.065042962507965</v>
       </c>
       <c r="J13">
-        <v>1.058005476748471</v>
+        <v>1.081722266809984</v>
       </c>
       <c r="K13">
-        <v>1.061568036143147</v>
+        <v>1.080538133426669</v>
       </c>
       <c r="L13">
-        <v>1.056346910746593</v>
+        <v>1.082409299389721</v>
       </c>
       <c r="M13">
-        <v>1.06683022156295</v>
+        <v>1.092360518483538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.030679847060565</v>
+        <v>1.075579374378903</v>
       </c>
       <c r="D14">
-        <v>1.048269760180974</v>
+        <v>1.077251647877422</v>
       </c>
       <c r="E14">
-        <v>1.043028387436091</v>
+        <v>1.079146385950102</v>
       </c>
       <c r="F14">
-        <v>1.053716992546863</v>
+        <v>1.08913620181241</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067127078780379</v>
+        <v>1.065121741088266</v>
       </c>
       <c r="J14">
-        <v>1.058863664291087</v>
+        <v>1.081875630764608</v>
       </c>
       <c r="K14">
-        <v>1.062351239534946</v>
+        <v>1.080675830689404</v>
       </c>
       <c r="L14">
-        <v>1.057198011676134</v>
+        <v>1.082564129553497</v>
       </c>
       <c r="M14">
-        <v>1.067708060631668</v>
+        <v>1.092520402041681</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.031411562898831</v>
+        <v>1.075709853417458</v>
       </c>
       <c r="D15">
-        <v>1.048842645508814</v>
+        <v>1.077355468183827</v>
       </c>
       <c r="E15">
-        <v>1.043644425242676</v>
+        <v>1.079260764910173</v>
       </c>
       <c r="F15">
-        <v>1.054348221009106</v>
+        <v>1.089253504614627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067450098115642</v>
+        <v>1.065170246874864</v>
       </c>
       <c r="J15">
-        <v>1.059390002321035</v>
+        <v>1.081970105929991</v>
       </c>
       <c r="K15">
-        <v>1.062831573405473</v>
+        <v>1.080760650713998</v>
       </c>
       <c r="L15">
-        <v>1.057720052987005</v>
+        <v>1.082659511197132</v>
       </c>
       <c r="M15">
-        <v>1.068246521047739</v>
+        <v>1.092618899258527</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.035621691306481</v>
+        <v>1.076469240465384</v>
       </c>
       <c r="D16">
-        <v>1.052140678792624</v>
+        <v>1.077959678442115</v>
       </c>
       <c r="E16">
-        <v>1.047191419831637</v>
+        <v>1.079926506614845</v>
       </c>
       <c r="F16">
-        <v>1.057982852726799</v>
+        <v>1.089936293707443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069305294835412</v>
+        <v>1.065452078909569</v>
       </c>
       <c r="J16">
-        <v>1.06241746080125</v>
+        <v>1.082519726994061</v>
       </c>
       <c r="K16">
-        <v>1.065594175029908</v>
+        <v>1.081254038273876</v>
       </c>
       <c r="L16">
-        <v>1.060723538146276</v>
+        <v>1.083214455591061</v>
       </c>
       <c r="M16">
-        <v>1.071344752376698</v>
+        <v>1.093192008308267</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.038220986731572</v>
+        <v>1.076945535014757</v>
       </c>
       <c r="D17">
-        <v>1.054178335328792</v>
+        <v>1.078338623721978</v>
       </c>
       <c r="E17">
-        <v>1.049383376394831</v>
+        <v>1.080344115616411</v>
       </c>
       <c r="F17">
-        <v>1.060229118064417</v>
+        <v>1.090364621932187</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.070447660176237</v>
+        <v>1.065628431411615</v>
       </c>
       <c r="J17">
-        <v>1.064285680447133</v>
+        <v>1.082864257131751</v>
       </c>
       <c r="K17">
-        <v>1.067298727255858</v>
+        <v>1.081563262386784</v>
       </c>
       <c r="L17">
-        <v>1.062577603863964</v>
+        <v>1.083562366434176</v>
       </c>
       <c r="M17">
-        <v>1.073257550508423</v>
+        <v>1.093551340354094</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.039722632316262</v>
+        <v>1.077223332590492</v>
       </c>
       <c r="D18">
-        <v>1.055356017041798</v>
+        <v>1.078559634812968</v>
       </c>
       <c r="E18">
-        <v>1.050650414544402</v>
+        <v>1.08058770269156</v>
       </c>
       <c r="F18">
-        <v>1.061527603004409</v>
+        <v>1.090614470657842</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071106514681477</v>
+        <v>1.065731138919414</v>
       </c>
       <c r="J18">
-        <v>1.0653646278742</v>
+        <v>1.083065132274109</v>
       </c>
       <c r="K18">
-        <v>1.068283066113012</v>
+        <v>1.081743532441508</v>
       </c>
       <c r="L18">
-        <v>1.063648603444575</v>
+        <v>1.083765228416611</v>
       </c>
       <c r="M18">
-        <v>1.074362564449928</v>
+        <v>1.093760873850521</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.040232245695773</v>
+        <v>1.077318051565926</v>
       </c>
       <c r="D19">
-        <v>1.055755769138144</v>
+        <v>1.078634990301644</v>
       </c>
       <c r="E19">
-        <v>1.05108052822871</v>
+        <v>1.08067076009929</v>
       </c>
       <c r="F19">
-        <v>1.061968400902601</v>
+        <v>1.090699664704981</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.071329921053084</v>
+        <v>1.065766133099684</v>
       </c>
       <c r="J19">
-        <v>1.065730729545459</v>
+        <v>1.083133611386653</v>
       </c>
       <c r="K19">
-        <v>1.068617050740323</v>
+        <v>1.081804983764316</v>
       </c>
       <c r="L19">
-        <v>1.064012046364092</v>
+        <v>1.083834387519954</v>
       </c>
       <c r="M19">
-        <v>1.074737564928452</v>
+        <v>1.093832309415538</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.037943615895238</v>
+        <v>1.076894434887316</v>
       </c>
       <c r="D20">
-        <v>1.053960844189914</v>
+        <v>1.07829796868714</v>
       </c>
       <c r="E20">
-        <v>1.049149397578805</v>
+        <v>1.080299309839842</v>
       </c>
       <c r="F20">
-        <v>1.059989336471061</v>
+        <v>1.090318665121411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07032587258998</v>
+        <v>1.065609526589977</v>
       </c>
       <c r="J20">
-        <v>1.064086358234131</v>
+        <v>1.082827300949388</v>
       </c>
       <c r="K20">
-        <v>1.067116875728712</v>
+        <v>1.081530095413514</v>
       </c>
       <c r="L20">
-        <v>1.062379768153579</v>
+        <v>1.083525045988942</v>
       </c>
       <c r="M20">
-        <v>1.073053438720192</v>
+        <v>1.09351279351635</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.030329249372443</v>
+        <v>1.075517012092698</v>
       </c>
       <c r="D21">
-        <v>1.047995298237398</v>
+        <v>1.077202026696253</v>
       </c>
       <c r="E21">
-        <v>1.042733261143026</v>
+        <v>1.079091719689271</v>
       </c>
       <c r="F21">
-        <v>1.053414591938033</v>
+        <v>1.089080138646942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066972246103466</v>
+        <v>1.065098549489318</v>
       </c>
       <c r="J21">
-        <v>1.058611455693036</v>
+        <v>1.08183047253541</v>
       </c>
       <c r="K21">
-        <v>1.062121070847146</v>
+        <v>1.080635286404862</v>
       </c>
       <c r="L21">
-        <v>1.056947875348327</v>
+        <v>1.082518538916599</v>
       </c>
       <c r="M21">
-        <v>1.067450062129782</v>
+        <v>1.092473322887283</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.025399951602846</v>
+        <v>1.074650805057516</v>
       </c>
       <c r="D22">
-        <v>1.044138745648117</v>
+        <v>1.076512766537887</v>
       </c>
       <c r="E22">
-        <v>1.038586968124138</v>
+        <v>1.078332477593226</v>
       </c>
       <c r="F22">
-        <v>1.049166308650725</v>
+        <v>1.088301529645893</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064791400279522</v>
+        <v>1.064775868326183</v>
       </c>
       <c r="J22">
-        <v>1.055064428747207</v>
+        <v>1.081202966927916</v>
       </c>
       <c r="K22">
-        <v>1.058883743681952</v>
+        <v>1.080071820592794</v>
       </c>
       <c r="L22">
-        <v>1.053430900953704</v>
+        <v>1.081885083155689</v>
       </c>
       <c r="M22">
-        <v>1.063822883742735</v>
+        <v>1.091819229376716</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.02802709508006</v>
+        <v>1.075110014258161</v>
       </c>
       <c r="D23">
-        <v>1.046193615098567</v>
+        <v>1.076878175452934</v>
       </c>
       <c r="E23">
-        <v>1.040796076988091</v>
+        <v>1.078734964876799</v>
       </c>
       <c r="F23">
-        <v>1.051429709070425</v>
+        <v>1.088714275724995</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.06595461647526</v>
+        <v>1.064947061564191</v>
       </c>
       <c r="J23">
-        <v>1.056955105401457</v>
+        <v>1.081535691959732</v>
       </c>
       <c r="K23">
-        <v>1.060609400476964</v>
+        <v>1.080370606694717</v>
       </c>
       <c r="L23">
-        <v>1.055305348572707</v>
+        <v>1.082220949627523</v>
       </c>
       <c r="M23">
-        <v>1.065755988585747</v>
+        <v>1.092166027983997</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.038068992462554</v>
+        <v>1.076917524887247</v>
       </c>
       <c r="D24">
-        <v>1.054059152515437</v>
+        <v>1.078316339012849</v>
       </c>
       <c r="E24">
-        <v>1.04925515795991</v>
+        <v>1.080319555632598</v>
       </c>
       <c r="F24">
-        <v>1.060097719588097</v>
+        <v>1.090339430988218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070380926182978</v>
+        <v>1.065618069346679</v>
       </c>
       <c r="J24">
-        <v>1.064176456511089</v>
+        <v>1.082844000114949</v>
       </c>
       <c r="K24">
-        <v>1.0671990771179</v>
+        <v>1.081545082434729</v>
       </c>
       <c r="L24">
-        <v>1.062469193795026</v>
+        <v>1.083541909703099</v>
       </c>
       <c r="M24">
-        <v>1.073145701000794</v>
+        <v>1.093530211354463</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.049158633728951</v>
+        <v>1.079014381391029</v>
       </c>
       <c r="D25">
-        <v>1.062764346389421</v>
+        <v>1.079984416128499</v>
       </c>
       <c r="E25">
-        <v>1.05862411209971</v>
+        <v>1.082158499029559</v>
       </c>
       <c r="F25">
-        <v>1.069700156100093</v>
+        <v>1.092225812340163</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07522648657678</v>
+        <v>1.066390622446641</v>
       </c>
       <c r="J25">
-        <v>1.07213776793735</v>
+        <v>1.084358949137674</v>
       </c>
       <c r="K25">
-        <v>1.074460635271692</v>
+        <v>1.082904267470118</v>
       </c>
       <c r="L25">
-        <v>1.0703757599316</v>
+        <v>1.085072125968345</v>
       </c>
       <c r="M25">
-        <v>1.081304909882459</v>
+        <v>1.095110967029838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.080686369548288</v>
+        <v>1.057601933250692</v>
       </c>
       <c r="D2">
-        <v>1.081314231955256</v>
+        <v>1.069404251044951</v>
       </c>
       <c r="E2">
-        <v>1.083625367113356</v>
+        <v>1.06577618423298</v>
       </c>
       <c r="F2">
-        <v>1.093730810571756</v>
+        <v>1.077032101285001</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.067001903477116</v>
+        <v>1.078879859530984</v>
       </c>
       <c r="J2">
-        <v>1.085564674350209</v>
+        <v>1.078186420515733</v>
       </c>
       <c r="K2">
-        <v>1.083985378331075</v>
+        <v>1.079974492067252</v>
       </c>
       <c r="L2">
-        <v>1.086290496804683</v>
+        <v>1.076389344668716</v>
       </c>
       <c r="M2">
-        <v>1.096369954386104</v>
+        <v>1.087513271705827</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081900152883505</v>
+        <v>1.063522466380916</v>
       </c>
       <c r="D3">
-        <v>1.082279443728756</v>
+        <v>1.074065806397482</v>
       </c>
       <c r="E3">
-        <v>1.084690541199117</v>
+        <v>1.070800897013726</v>
       </c>
       <c r="F3">
-        <v>1.094823840609915</v>
+        <v>1.082184121125306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06744291583022</v>
+        <v>1.081420050035803</v>
       </c>
       <c r="J3">
-        <v>1.08643865572687</v>
+        <v>1.082419460484955</v>
       </c>
       <c r="K3">
-        <v>1.084768655942776</v>
+        <v>1.083831224840267</v>
       </c>
       <c r="L3">
-        <v>1.087173930016216</v>
+        <v>1.080601451154588</v>
       </c>
       <c r="M3">
-        <v>1.097283056065762</v>
+        <v>1.09186329727461</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082685458684607</v>
+        <v>1.067263066248697</v>
       </c>
       <c r="D4">
-        <v>1.082903842965748</v>
+        <v>1.077013149353368</v>
       </c>
       <c r="E4">
-        <v>1.085379832326296</v>
+        <v>1.073979572380053</v>
       </c>
       <c r="F4">
-        <v>1.095531235005786</v>
+        <v>1.085443762714172</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067726974172488</v>
+        <v>1.083014689303585</v>
       </c>
       <c r="J4">
-        <v>1.087003501696314</v>
+        <v>1.085089760111248</v>
       </c>
       <c r="K4">
-        <v>1.085274706203559</v>
+        <v>1.086263130068087</v>
       </c>
       <c r="L4">
-        <v>1.087745016320181</v>
+        <v>1.08326016791934</v>
       </c>
       <c r="M4">
-        <v>1.09787342173235</v>
+        <v>1.094609752987567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.083015580419484</v>
+        <v>1.068814916440153</v>
       </c>
       <c r="D5">
-        <v>1.083166303299428</v>
+        <v>1.078236365445174</v>
       </c>
       <c r="E5">
-        <v>1.085669623548776</v>
+        <v>1.075299218299398</v>
       </c>
       <c r="F5">
-        <v>1.095828655638713</v>
+        <v>1.08679712526144</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067846080079299</v>
+        <v>1.083673752558797</v>
       </c>
       <c r="J5">
-        <v>1.087240801340487</v>
+        <v>1.086196545059767</v>
       </c>
       <c r="K5">
-        <v>1.085487262998473</v>
+        <v>1.087270853058927</v>
       </c>
       <c r="L5">
-        <v>1.087984969089828</v>
+        <v>1.084362535125794</v>
       </c>
       <c r="M5">
-        <v>1.09812149911814</v>
+        <v>1.095748662009276</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083071008133467</v>
+        <v>1.069074291412268</v>
       </c>
       <c r="D6">
-        <v>1.083210369384688</v>
+        <v>1.078440838292039</v>
       </c>
       <c r="E6">
-        <v>1.085718281567111</v>
+        <v>1.075519835389383</v>
       </c>
       <c r="F6">
-        <v>1.095878595770215</v>
+        <v>1.087023385111565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067866060190167</v>
+        <v>1.083783759802438</v>
       </c>
       <c r="J6">
-        <v>1.087280635542254</v>
+        <v>1.086381470303676</v>
       </c>
       <c r="K6">
-        <v>1.08552294128843</v>
+        <v>1.087439211593351</v>
       </c>
       <c r="L6">
-        <v>1.088025250501551</v>
+        <v>1.084546744596409</v>
       </c>
       <c r="M6">
-        <v>1.098163145835498</v>
+        <v>1.095938987319595</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.082689869867342</v>
+        <v>1.067283882275431</v>
       </c>
       <c r="D7">
-        <v>1.082907350118672</v>
+        <v>1.077029555435873</v>
       </c>
       <c r="E7">
-        <v>1.085383704477893</v>
+        <v>1.073997270126504</v>
       </c>
       <c r="F7">
-        <v>1.09553520902811</v>
+        <v>1.085461912226959</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067728566897663</v>
+        <v>1.083023539699283</v>
       </c>
       <c r="J7">
-        <v>1.087006673139734</v>
+        <v>1.085104610310192</v>
       </c>
       <c r="K7">
-        <v>1.085277547130777</v>
+        <v>1.086276652121519</v>
       </c>
       <c r="L7">
-        <v>1.087748223098242</v>
+        <v>1.083274957336344</v>
       </c>
       <c r="M7">
-        <v>1.097876736995063</v>
+        <v>1.094625032007344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.081096593495041</v>
+        <v>1.059622103563452</v>
       </c>
       <c r="D8">
-        <v>1.081640462703723</v>
+        <v>1.070994348289596</v>
       </c>
       <c r="E8">
-        <v>1.083985337293443</v>
+        <v>1.067489801679592</v>
       </c>
       <c r="F8">
-        <v>1.094100178512695</v>
+        <v>1.078789044611945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067151216395424</v>
+        <v>1.079748740142843</v>
       </c>
       <c r="J8">
-        <v>1.085860181410224</v>
+        <v>1.079631639143884</v>
       </c>
       <c r="K8">
-        <v>1.084250253129277</v>
+        <v>1.081291440854024</v>
       </c>
       <c r="L8">
-        <v>1.086589172355007</v>
+        <v>1.077827071027078</v>
       </c>
       <c r="M8">
-        <v>1.096678639562402</v>
+        <v>1.088997930046042</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078288256736938</v>
+        <v>1.045383418914609</v>
       </c>
       <c r="D9">
-        <v>1.079406814918398</v>
+        <v>1.059798750954035</v>
       </c>
       <c r="E9">
-        <v>1.081521603372533</v>
+        <v>1.055431488545033</v>
       </c>
       <c r="F9">
-        <v>1.091572442080404</v>
+        <v>1.066427708865668</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066123826274</v>
+        <v>1.073582493057572</v>
       </c>
       <c r="J9">
-        <v>1.083834683858763</v>
+        <v>1.069429423378333</v>
       </c>
       <c r="K9">
-        <v>1.082434005563908</v>
+        <v>1.071990807964207</v>
       </c>
       <c r="L9">
-        <v>1.084542500478427</v>
+        <v>1.067684979087626</v>
       </c>
       <c r="M9">
-        <v>1.09456379083628</v>
+        <v>1.078527729450087</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076415412255022</v>
+        <v>1.035325950119478</v>
       </c>
       <c r="D10">
-        <v>1.077916851078963</v>
+        <v>1.051908910201825</v>
       </c>
       <c r="E10">
-        <v>1.079879313134068</v>
+        <v>1.046942124658844</v>
       </c>
       <c r="F10">
-        <v>1.089887890111293</v>
+        <v>1.057727388327627</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065432128266146</v>
+        <v>1.069175169991869</v>
       </c>
       <c r="J10">
-        <v>1.082480780453501</v>
+        <v>1.062204853705919</v>
       </c>
       <c r="K10">
-        <v>1.081219080078008</v>
+        <v>1.065400182176996</v>
       </c>
       <c r="L10">
-        <v>1.08317512902092</v>
+        <v>1.060512572997254</v>
       </c>
       <c r="M10">
-        <v>1.093151392348075</v>
+        <v>1.071127116360153</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.075604280900415</v>
+        <v>1.030819711873885</v>
       </c>
       <c r="D11">
-        <v>1.077271465728615</v>
+        <v>1.048379257940555</v>
       </c>
       <c r="E11">
-        <v>1.079168218982718</v>
+        <v>1.043146131026214</v>
       </c>
       <c r="F11">
-        <v>1.089158592844757</v>
+        <v>1.053837638857063</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065131001947356</v>
+        <v>1.067188835813371</v>
       </c>
       <c r="J11">
-        <v>1.081893665542158</v>
+        <v>1.058964275524681</v>
       </c>
       <c r="K11">
-        <v>1.080692022600123</v>
+        <v>1.062443057841108</v>
       </c>
       <c r="L11">
-        <v>1.082582337180067</v>
+        <v>1.057297798655275</v>
       </c>
       <c r="M11">
-        <v>1.092539204261199</v>
+        <v>1.0678109849817</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.075302961965503</v>
+        <v>1.029121537270891</v>
       </c>
       <c r="D12">
-        <v>1.077031706740822</v>
+        <v>1.047050017287395</v>
       </c>
       <c r="E12">
-        <v>1.078904090117167</v>
+        <v>1.041716855707315</v>
       </c>
       <c r="F12">
-        <v>1.088887717047013</v>
+        <v>1.052373149238318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.065018906653416</v>
+        <v>1.066438598400583</v>
       </c>
       <c r="J12">
-        <v>1.081675453662157</v>
+        <v>1.05774258701215</v>
       </c>
       <c r="K12">
-        <v>1.080496100757733</v>
+        <v>1.061328110361136</v>
       </c>
       <c r="L12">
-        <v>1.08236203999572</v>
+        <v>1.056086211833682</v>
       </c>
       <c r="M12">
-        <v>1.092311717611418</v>
+        <v>1.066561340049702</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.075367597227631</v>
+        <v>1.029486931502474</v>
       </c>
       <c r="D13">
-        <v>1.077083137416699</v>
+        <v>1.047335985767806</v>
       </c>
       <c r="E13">
-        <v>1.078960746529893</v>
+        <v>1.04202433344812</v>
       </c>
       <c r="F13">
-        <v>1.088945820042462</v>
+        <v>1.052688198639949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.065042962507965</v>
+        <v>1.066600101314813</v>
       </c>
       <c r="J13">
-        <v>1.081722266809984</v>
+        <v>1.05800547674847</v>
       </c>
       <c r="K13">
-        <v>1.080538133426669</v>
+        <v>1.061568036143145</v>
       </c>
       <c r="L13">
-        <v>1.082409299389721</v>
+        <v>1.056346910746591</v>
       </c>
       <c r="M13">
-        <v>1.092360518483538</v>
+        <v>1.066830221562948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.075579374378903</v>
+        <v>1.030679847060566</v>
       </c>
       <c r="D14">
-        <v>1.077251647877422</v>
+        <v>1.048269760180975</v>
       </c>
       <c r="E14">
-        <v>1.079146385950102</v>
+        <v>1.043028387436092</v>
       </c>
       <c r="F14">
-        <v>1.08913620181241</v>
+        <v>1.053716992546864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065121741088266</v>
+        <v>1.067127078780379</v>
       </c>
       <c r="J14">
-        <v>1.081875630764608</v>
+        <v>1.058863664291088</v>
       </c>
       <c r="K14">
-        <v>1.080675830689404</v>
+        <v>1.062351239534947</v>
       </c>
       <c r="L14">
-        <v>1.082564129553497</v>
+        <v>1.057198011676135</v>
       </c>
       <c r="M14">
-        <v>1.092520402041681</v>
+        <v>1.06770806063167</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075709853417458</v>
+        <v>1.03141156289883</v>
       </c>
       <c r="D15">
-        <v>1.077355468183827</v>
+        <v>1.048842645508814</v>
       </c>
       <c r="E15">
-        <v>1.079260764910173</v>
+        <v>1.043644425242676</v>
       </c>
       <c r="F15">
-        <v>1.089253504614627</v>
+        <v>1.054348221009105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065170246874864</v>
+        <v>1.067450098115642</v>
       </c>
       <c r="J15">
-        <v>1.081970105929991</v>
+        <v>1.059390002321035</v>
       </c>
       <c r="K15">
-        <v>1.080760650713998</v>
+        <v>1.062831573405472</v>
       </c>
       <c r="L15">
-        <v>1.082659511197132</v>
+        <v>1.057720052987005</v>
       </c>
       <c r="M15">
-        <v>1.092618899258527</v>
+        <v>1.068246521047738</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076469240465384</v>
+        <v>1.035621691306483</v>
       </c>
       <c r="D16">
-        <v>1.077959678442115</v>
+        <v>1.052140678792626</v>
       </c>
       <c r="E16">
-        <v>1.079926506614845</v>
+        <v>1.047191419831638</v>
       </c>
       <c r="F16">
-        <v>1.089936293707443</v>
+        <v>1.057982852726801</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065452078909569</v>
+        <v>1.069305294835413</v>
       </c>
       <c r="J16">
-        <v>1.082519726994061</v>
+        <v>1.062417460801251</v>
       </c>
       <c r="K16">
-        <v>1.081254038273876</v>
+        <v>1.06559417502991</v>
       </c>
       <c r="L16">
-        <v>1.083214455591061</v>
+        <v>1.060723538146277</v>
       </c>
       <c r="M16">
-        <v>1.093192008308267</v>
+        <v>1.071344752376699</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076945535014757</v>
+        <v>1.03822098673157</v>
       </c>
       <c r="D17">
-        <v>1.078338623721978</v>
+        <v>1.054178335328791</v>
       </c>
       <c r="E17">
-        <v>1.080344115616411</v>
+        <v>1.049383376394829</v>
       </c>
       <c r="F17">
-        <v>1.090364621932187</v>
+        <v>1.060229118064415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.065628431411615</v>
+        <v>1.070447660176236</v>
       </c>
       <c r="J17">
-        <v>1.082864257131751</v>
+        <v>1.064285680447132</v>
       </c>
       <c r="K17">
-        <v>1.081563262386784</v>
+        <v>1.067298727255857</v>
       </c>
       <c r="L17">
-        <v>1.083562366434176</v>
+        <v>1.062577603863962</v>
       </c>
       <c r="M17">
-        <v>1.093551340354094</v>
+        <v>1.07325755050842</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077223332590492</v>
+        <v>1.039722632316262</v>
       </c>
       <c r="D18">
-        <v>1.078559634812968</v>
+        <v>1.055356017041797</v>
       </c>
       <c r="E18">
-        <v>1.08058770269156</v>
+        <v>1.050650414544401</v>
       </c>
       <c r="F18">
-        <v>1.090614470657842</v>
+        <v>1.061527603004408</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065731138919414</v>
+        <v>1.071106514681476</v>
       </c>
       <c r="J18">
-        <v>1.083065132274109</v>
+        <v>1.0653646278742</v>
       </c>
       <c r="K18">
-        <v>1.081743532441508</v>
+        <v>1.068283066113012</v>
       </c>
       <c r="L18">
-        <v>1.083765228416611</v>
+        <v>1.063648603444574</v>
       </c>
       <c r="M18">
-        <v>1.093760873850521</v>
+        <v>1.074362564449927</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.077318051565926</v>
+        <v>1.040232245695773</v>
       </c>
       <c r="D19">
-        <v>1.078634990301644</v>
+        <v>1.055755769138144</v>
       </c>
       <c r="E19">
-        <v>1.08067076009929</v>
+        <v>1.05108052822871</v>
       </c>
       <c r="F19">
-        <v>1.090699664704981</v>
+        <v>1.061968400902601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065766133099684</v>
+        <v>1.071329921053084</v>
       </c>
       <c r="J19">
-        <v>1.083133611386653</v>
+        <v>1.065730729545459</v>
       </c>
       <c r="K19">
-        <v>1.081804983764316</v>
+        <v>1.068617050740322</v>
       </c>
       <c r="L19">
-        <v>1.083834387519954</v>
+        <v>1.064012046364092</v>
       </c>
       <c r="M19">
-        <v>1.093832309415538</v>
+        <v>1.074737564928452</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076894434887316</v>
+        <v>1.037943615895238</v>
       </c>
       <c r="D20">
-        <v>1.07829796868714</v>
+        <v>1.053960844189915</v>
       </c>
       <c r="E20">
-        <v>1.080299309839842</v>
+        <v>1.049149397578805</v>
       </c>
       <c r="F20">
-        <v>1.090318665121411</v>
+        <v>1.059989336471062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065609526589977</v>
+        <v>1.07032587258998</v>
       </c>
       <c r="J20">
-        <v>1.082827300949388</v>
+        <v>1.064086358234132</v>
       </c>
       <c r="K20">
-        <v>1.081530095413514</v>
+        <v>1.067116875728713</v>
       </c>
       <c r="L20">
-        <v>1.083525045988942</v>
+        <v>1.06237976815358</v>
       </c>
       <c r="M20">
-        <v>1.09351279351635</v>
+        <v>1.073053438720192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.075517012092698</v>
+        <v>1.030329249372441</v>
       </c>
       <c r="D21">
-        <v>1.077202026696253</v>
+        <v>1.047995298237396</v>
       </c>
       <c r="E21">
-        <v>1.079091719689271</v>
+        <v>1.042733261143024</v>
       </c>
       <c r="F21">
-        <v>1.089080138646942</v>
+        <v>1.053414591938031</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065098549489318</v>
+        <v>1.066972246103465</v>
       </c>
       <c r="J21">
-        <v>1.08183047253541</v>
+        <v>1.058611455693035</v>
       </c>
       <c r="K21">
-        <v>1.080635286404862</v>
+        <v>1.062121070847144</v>
       </c>
       <c r="L21">
-        <v>1.082518538916599</v>
+        <v>1.056947875348326</v>
       </c>
       <c r="M21">
-        <v>1.092473322887283</v>
+        <v>1.06745006212978</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.074650805057516</v>
+        <v>1.025399951602844</v>
       </c>
       <c r="D22">
-        <v>1.076512766537887</v>
+        <v>1.044138745648116</v>
       </c>
       <c r="E22">
-        <v>1.078332477593226</v>
+        <v>1.038586968124136</v>
       </c>
       <c r="F22">
-        <v>1.088301529645893</v>
+        <v>1.049166308650725</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064775868326183</v>
+        <v>1.064791400279521</v>
       </c>
       <c r="J22">
-        <v>1.081202966927916</v>
+        <v>1.055064428747206</v>
       </c>
       <c r="K22">
-        <v>1.080071820592794</v>
+        <v>1.058883743681951</v>
       </c>
       <c r="L22">
-        <v>1.081885083155689</v>
+        <v>1.053430900953702</v>
       </c>
       <c r="M22">
-        <v>1.091819229376716</v>
+        <v>1.063822883742734</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.075110014258161</v>
+        <v>1.028027095080061</v>
       </c>
       <c r="D23">
-        <v>1.076878175452934</v>
+        <v>1.046193615098568</v>
       </c>
       <c r="E23">
-        <v>1.078734964876799</v>
+        <v>1.040796076988091</v>
       </c>
       <c r="F23">
-        <v>1.088714275724995</v>
+        <v>1.051429709070426</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.064947061564191</v>
+        <v>1.065954616475261</v>
       </c>
       <c r="J23">
-        <v>1.081535691959732</v>
+        <v>1.056955105401458</v>
       </c>
       <c r="K23">
-        <v>1.080370606694717</v>
+        <v>1.060609400476965</v>
       </c>
       <c r="L23">
-        <v>1.082220949627523</v>
+        <v>1.055305348572707</v>
       </c>
       <c r="M23">
-        <v>1.092166027983997</v>
+        <v>1.065755988585747</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076917524887247</v>
+        <v>1.038068992462553</v>
       </c>
       <c r="D24">
-        <v>1.078316339012849</v>
+        <v>1.054059152515436</v>
       </c>
       <c r="E24">
-        <v>1.080319555632598</v>
+        <v>1.049255157959909</v>
       </c>
       <c r="F24">
-        <v>1.090339430988218</v>
+        <v>1.060097719588095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065618069346679</v>
+        <v>1.070380926182978</v>
       </c>
       <c r="J24">
-        <v>1.082844000114949</v>
+        <v>1.064176456511088</v>
       </c>
       <c r="K24">
-        <v>1.081545082434729</v>
+        <v>1.067199077117899</v>
       </c>
       <c r="L24">
-        <v>1.083541909703099</v>
+        <v>1.062469193795025</v>
       </c>
       <c r="M24">
-        <v>1.093530211354463</v>
+        <v>1.073145701000793</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.079014381391029</v>
+        <v>1.04915863372895</v>
       </c>
       <c r="D25">
-        <v>1.079984416128499</v>
+        <v>1.062764346389421</v>
       </c>
       <c r="E25">
-        <v>1.082158499029559</v>
+        <v>1.058624112099709</v>
       </c>
       <c r="F25">
-        <v>1.092225812340163</v>
+        <v>1.069700156100093</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.066390622446641</v>
+        <v>1.07522648657678</v>
       </c>
       <c r="J25">
-        <v>1.084358949137674</v>
+        <v>1.072137767937351</v>
       </c>
       <c r="K25">
-        <v>1.082904267470118</v>
+        <v>1.074460635271692</v>
       </c>
       <c r="L25">
-        <v>1.085072125968345</v>
+        <v>1.070375759931599</v>
       </c>
       <c r="M25">
-        <v>1.095110967029838</v>
+        <v>1.081304909882459</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057601933250692</v>
+        <v>1.007229764985905</v>
       </c>
       <c r="D2">
-        <v>1.069404251044951</v>
+        <v>1.026318188084373</v>
       </c>
       <c r="E2">
-        <v>1.06577618423298</v>
+        <v>1.022402614378259</v>
       </c>
       <c r="F2">
-        <v>1.077032101285001</v>
+        <v>1.032738388962148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.078879859530984</v>
+        <v>1.051156531181122</v>
       </c>
       <c r="J2">
-        <v>1.078186420515733</v>
+        <v>1.029196364569939</v>
       </c>
       <c r="K2">
-        <v>1.079974492067252</v>
+        <v>1.037422651891938</v>
       </c>
       <c r="L2">
-        <v>1.076389344668716</v>
+        <v>1.033558424347711</v>
       </c>
       <c r="M2">
-        <v>1.087513271705827</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.043759716349943</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043205265749274</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037531321684731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.063522466380916</v>
+        <v>1.011067447242941</v>
       </c>
       <c r="D3">
-        <v>1.074065806397482</v>
+        <v>1.028846622914539</v>
       </c>
       <c r="E3">
-        <v>1.070800897013726</v>
+        <v>1.025386854694429</v>
       </c>
       <c r="F3">
-        <v>1.082184121125306</v>
+        <v>1.035607180007504</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.081420050035803</v>
+        <v>1.052007884325126</v>
       </c>
       <c r="J3">
-        <v>1.082419460484955</v>
+        <v>1.031260883037605</v>
       </c>
       <c r="K3">
-        <v>1.083831224840267</v>
+        <v>1.039123244995017</v>
       </c>
       <c r="L3">
-        <v>1.080601451154588</v>
+        <v>1.035704892131307</v>
       </c>
       <c r="M3">
-        <v>1.09186329727461</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.045803863020083</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04482306294634</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038731124132523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.067263066248697</v>
+        <v>1.013506475424617</v>
       </c>
       <c r="D4">
-        <v>1.077013149353368</v>
+        <v>1.03045509742793</v>
       </c>
       <c r="E4">
-        <v>1.073979572380053</v>
+        <v>1.027289426831272</v>
       </c>
       <c r="F4">
-        <v>1.085443762714172</v>
+        <v>1.037436880713859</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.083014689303585</v>
+        <v>1.052535928740063</v>
       </c>
       <c r="J4">
-        <v>1.085089760111248</v>
+        <v>1.032570882651866</v>
       </c>
       <c r="K4">
-        <v>1.086263130068087</v>
+        <v>1.040199342403452</v>
       </c>
       <c r="L4">
-        <v>1.08326016791934</v>
+        <v>1.037069281722654</v>
       </c>
       <c r="M4">
-        <v>1.094609752987567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.047103533437029</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04585165809856</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039492915559811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.068814916440153</v>
+        <v>1.0145243740026</v>
       </c>
       <c r="D5">
-        <v>1.078236365445174</v>
+        <v>1.031128557674519</v>
       </c>
       <c r="E5">
-        <v>1.075299218299398</v>
+        <v>1.028085044758475</v>
       </c>
       <c r="F5">
-        <v>1.08679712526144</v>
+        <v>1.03820168850607</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.083673752558797</v>
+        <v>1.052754370163188</v>
       </c>
       <c r="J5">
-        <v>1.086196545059767</v>
+        <v>1.033118292008966</v>
       </c>
       <c r="K5">
-        <v>1.087270853058927</v>
+        <v>1.040649704705758</v>
       </c>
       <c r="L5">
-        <v>1.084362535125794</v>
+        <v>1.037639516295648</v>
       </c>
       <c r="M5">
-        <v>1.095748662009276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.047646314170993</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046281229373054</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039818532397442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069074291412268</v>
+        <v>1.014698093886895</v>
       </c>
       <c r="D6">
-        <v>1.078440838292039</v>
+        <v>1.031245768577642</v>
       </c>
       <c r="E6">
-        <v>1.075519835389383</v>
+        <v>1.028221164614783</v>
       </c>
       <c r="F6">
-        <v>1.087023385111565</v>
+        <v>1.038331931903234</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.083783759802438</v>
+        <v>1.052792978241792</v>
       </c>
       <c r="J6">
-        <v>1.086381470303676</v>
+        <v>1.033213176884097</v>
       </c>
       <c r="K6">
-        <v>1.087439211593351</v>
+        <v>1.040729450972332</v>
       </c>
       <c r="L6">
-        <v>1.084546744596409</v>
+        <v>1.037737812842001</v>
       </c>
       <c r="M6">
-        <v>1.095938987319595</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.04773930182697</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046354822280342</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039883665976722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.067283882275431</v>
+        <v>1.013529235543894</v>
       </c>
       <c r="D7">
-        <v>1.077029555435873</v>
+        <v>1.030476165768183</v>
       </c>
       <c r="E7">
-        <v>1.073997270126504</v>
+        <v>1.027307901695425</v>
       </c>
       <c r="F7">
-        <v>1.085461912226959</v>
+        <v>1.03745297888708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.083023539699283</v>
+        <v>1.052544863050019</v>
       </c>
       <c r="J7">
-        <v>1.085104610310192</v>
+        <v>1.032587114796322</v>
       </c>
       <c r="K7">
-        <v>1.086276652121519</v>
+        <v>1.040217291843914</v>
       </c>
       <c r="L7">
-        <v>1.083274957336344</v>
+        <v>1.037084653287373</v>
       </c>
       <c r="M7">
-        <v>1.094625032007344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.047116597201756</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045861997116347</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039525725789699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.059622103563452</v>
+        <v>1.008547314893015</v>
       </c>
       <c r="D8">
-        <v>1.070994348289596</v>
+        <v>1.027193195622951</v>
       </c>
       <c r="E8">
-        <v>1.067489801679592</v>
+        <v>1.023426820471073</v>
       </c>
       <c r="F8">
-        <v>1.078789044611945</v>
+        <v>1.033720709333389</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.079748740142843</v>
+        <v>1.051456320714331</v>
       </c>
       <c r="J8">
-        <v>1.079631639143884</v>
+        <v>1.029910449964853</v>
       </c>
       <c r="K8">
-        <v>1.081291440854024</v>
+        <v>1.038016997669587</v>
       </c>
       <c r="L8">
-        <v>1.077827071027078</v>
+        <v>1.034298542122256</v>
       </c>
       <c r="M8">
-        <v>1.088997930046042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.044462492514131</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043761463673835</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037974506242323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045383418914609</v>
+        <v>0.9994006718758544</v>
       </c>
       <c r="D9">
-        <v>1.059798750954035</v>
+        <v>1.021170749907851</v>
       </c>
       <c r="E9">
-        <v>1.055431488545033</v>
+        <v>1.016348987200047</v>
       </c>
       <c r="F9">
-        <v>1.066427708865668</v>
+        <v>1.026923087671949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073582493057572</v>
+        <v>1.049350511446099</v>
       </c>
       <c r="J9">
-        <v>1.069429423378333</v>
+        <v>1.024974611729599</v>
       </c>
       <c r="K9">
-        <v>1.071990807964207</v>
+        <v>1.033929436947469</v>
       </c>
       <c r="L9">
-        <v>1.067684979087626</v>
+        <v>1.029182267692717</v>
       </c>
       <c r="M9">
-        <v>1.078527729450087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.039593952804102</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039908348026069</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03508113794218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035325950119478</v>
+        <v>0.9931085312303443</v>
       </c>
       <c r="D10">
-        <v>1.051908910201825</v>
+        <v>1.017045698811428</v>
       </c>
       <c r="E10">
-        <v>1.046942124658844</v>
+        <v>1.011549659413847</v>
       </c>
       <c r="F10">
-        <v>1.057727388327627</v>
+        <v>1.022365435706439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.069175169991869</v>
+        <v>1.047852841681138</v>
       </c>
       <c r="J10">
-        <v>1.062204853705919</v>
+        <v>1.021598265134008</v>
       </c>
       <c r="K10">
-        <v>1.065400182176996</v>
+        <v>1.03111386034928</v>
       </c>
       <c r="L10">
-        <v>1.060512572997254</v>
+        <v>1.025713466090765</v>
       </c>
       <c r="M10">
-        <v>1.071127116360153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.036342285175069</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037386371010334</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033107193728834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030819711873885</v>
+        <v>0.9908280116113778</v>
       </c>
       <c r="D11">
-        <v>1.048379257940555</v>
+        <v>1.015585053871197</v>
       </c>
       <c r="E11">
-        <v>1.043146131026214</v>
+        <v>1.010091017197106</v>
       </c>
       <c r="F11">
-        <v>1.053837638857063</v>
+        <v>1.021362330249844</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067188835813371</v>
+        <v>1.047415180644316</v>
       </c>
       <c r="J11">
-        <v>1.058964275524681</v>
+        <v>1.020587397435741</v>
       </c>
       <c r="K11">
-        <v>1.062443057841108</v>
+        <v>1.030218924575855</v>
       </c>
       <c r="L11">
-        <v>1.057297798655275</v>
+        <v>1.024825108185115</v>
       </c>
       <c r="M11">
-        <v>1.0678109849817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.035892323895416</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037466994957116</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032507380449622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029121537270891</v>
+        <v>0.9901497856731081</v>
       </c>
       <c r="D12">
-        <v>1.047050017287395</v>
+        <v>1.015156740620556</v>
       </c>
       <c r="E12">
-        <v>1.041716855707315</v>
+        <v>1.009775457000523</v>
       </c>
       <c r="F12">
-        <v>1.052373149238318</v>
+        <v>1.021345235131389</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.066438598400583</v>
+        <v>1.047330221619694</v>
       </c>
       <c r="J12">
-        <v>1.05774258701215</v>
+        <v>1.020376954911401</v>
       </c>
       <c r="K12">
-        <v>1.061328110361136</v>
+        <v>1.029999210451977</v>
       </c>
       <c r="L12">
-        <v>1.056086211833682</v>
+        <v>1.024717740833753</v>
       </c>
       <c r="M12">
-        <v>1.066561340049702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.036074609782982</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037937855168411</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032352034480464</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029486931502474</v>
+        <v>0.9906732311327857</v>
       </c>
       <c r="D13">
-        <v>1.047335985767806</v>
+        <v>1.015510004216197</v>
       </c>
       <c r="E13">
-        <v>1.04202433344812</v>
+        <v>1.010331563705231</v>
       </c>
       <c r="F13">
-        <v>1.052688198639949</v>
+        <v>1.022106336963331</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.066600101314813</v>
+        <v>1.047524836983877</v>
       </c>
       <c r="J13">
-        <v>1.05800547674847</v>
+        <v>1.020783543500567</v>
       </c>
       <c r="K13">
-        <v>1.061568036143145</v>
+        <v>1.030302912549282</v>
       </c>
       <c r="L13">
-        <v>1.056346910746591</v>
+        <v>1.02522008990005</v>
       </c>
       <c r="M13">
-        <v>1.066830221562948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.036779270531928</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03877184227683</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032564262115981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030679847060566</v>
+        <v>0.9915830524605554</v>
       </c>
       <c r="D14">
-        <v>1.048269760180975</v>
+        <v>1.016111814665364</v>
       </c>
       <c r="E14">
-        <v>1.043028387436092</v>
+        <v>1.011113439461534</v>
       </c>
       <c r="F14">
-        <v>1.053716992546864</v>
+        <v>1.022989089534551</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067127078780379</v>
+        <v>1.047787286060046</v>
       </c>
       <c r="J14">
-        <v>1.058863664291088</v>
+        <v>1.021346388563492</v>
       </c>
       <c r="K14">
-        <v>1.062351239534947</v>
+        <v>1.030752729545231</v>
       </c>
       <c r="L14">
-        <v>1.057198011676135</v>
+        <v>1.025845470471847</v>
       </c>
       <c r="M14">
-        <v>1.06770806063167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.037506526483403</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039520093439643</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032883728747548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03141156289883</v>
+        <v>0.9920720936767311</v>
       </c>
       <c r="D15">
-        <v>1.048842645508814</v>
+        <v>1.016434933258654</v>
       </c>
       <c r="E15">
-        <v>1.043644425242676</v>
+        <v>1.01150346721114</v>
       </c>
       <c r="F15">
-        <v>1.054348221009105</v>
+        <v>1.023389701017336</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067450098115642</v>
+        <v>1.0479161507325</v>
       </c>
       <c r="J15">
-        <v>1.059390002321035</v>
+        <v>1.021625332661237</v>
       </c>
       <c r="K15">
-        <v>1.062831573405472</v>
+        <v>1.03098318235233</v>
       </c>
       <c r="L15">
-        <v>1.057720052987005</v>
+        <v>1.026140916398888</v>
       </c>
       <c r="M15">
-        <v>1.068246521047738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.037814047323024</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039800699129684</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033052556754299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035621691306483</v>
+        <v>0.9946387592320838</v>
       </c>
       <c r="D16">
-        <v>1.052140678792626</v>
+        <v>1.018118365196978</v>
       </c>
       <c r="E16">
-        <v>1.047191419831638</v>
+        <v>1.013435333185871</v>
       </c>
       <c r="F16">
-        <v>1.057982852726801</v>
+        <v>1.025206939223747</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.069305294835413</v>
+        <v>1.048533836653596</v>
       </c>
       <c r="J16">
-        <v>1.062417460801251</v>
+        <v>1.022989241712895</v>
       </c>
       <c r="K16">
-        <v>1.06559417502991</v>
+        <v>1.03213227488901</v>
       </c>
       <c r="L16">
-        <v>1.060723538146277</v>
+        <v>1.027530194855441</v>
       </c>
       <c r="M16">
-        <v>1.071344752376699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.03910012929934</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040778498580826</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033868185375618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.03822098673157</v>
+        <v>0.9961328802991962</v>
       </c>
       <c r="D17">
-        <v>1.054178335328791</v>
+        <v>1.019096297852939</v>
       </c>
       <c r="E17">
-        <v>1.049383376394829</v>
+        <v>1.014509287207951</v>
       </c>
       <c r="F17">
-        <v>1.060229118064415</v>
+        <v>1.026134389491312</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.070447660176236</v>
+        <v>1.048867088867369</v>
       </c>
       <c r="J17">
-        <v>1.064285680447132</v>
+        <v>1.023740481649861</v>
       </c>
       <c r="K17">
-        <v>1.067298727255857</v>
+        <v>1.032777584309257</v>
       </c>
       <c r="L17">
-        <v>1.062577603863962</v>
+        <v>1.028267610426351</v>
       </c>
       <c r="M17">
-        <v>1.07325755050842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.039699196353792</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041122993224246</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03432703917402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.039722632316262</v>
+        <v>0.9968295023679284</v>
       </c>
       <c r="D18">
-        <v>1.055356017041797</v>
+        <v>1.019541987740252</v>
       </c>
       <c r="E18">
-        <v>1.050650414544401</v>
+        <v>1.014914375829485</v>
       </c>
       <c r="F18">
-        <v>1.061527603004408</v>
+        <v>1.026331083500694</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.071106514681476</v>
+        <v>1.048977938129957</v>
       </c>
       <c r="J18">
-        <v>1.0653646278742</v>
+        <v>1.024012824701813</v>
       </c>
       <c r="K18">
-        <v>1.068283066113012</v>
+        <v>1.033031716427431</v>
       </c>
       <c r="L18">
-        <v>1.063648603444574</v>
+        <v>1.028480539671112</v>
       </c>
       <c r="M18">
-        <v>1.074362564449927</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.039710276471336</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040894087147708</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034495053492367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040232245695773</v>
+        <v>0.9968067483460353</v>
       </c>
       <c r="D19">
-        <v>1.055755769138144</v>
+        <v>1.019514106187798</v>
       </c>
       <c r="E19">
-        <v>1.05108052822871</v>
+        <v>1.014710084801449</v>
       </c>
       <c r="F19">
-        <v>1.061968400902601</v>
+        <v>1.02585772041411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.071329921053084</v>
+        <v>1.048893471380391</v>
       </c>
       <c r="J19">
-        <v>1.065730729545459</v>
+        <v>1.023855601801298</v>
       </c>
       <c r="K19">
-        <v>1.068617050740322</v>
+        <v>1.032941508391135</v>
       </c>
       <c r="L19">
-        <v>1.064012046364092</v>
+        <v>1.028216435262231</v>
       </c>
       <c r="M19">
-        <v>1.074737564928452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.039182326385888</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04015112540426</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03443768396412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037943615895238</v>
+        <v>0.9947629323602073</v>
       </c>
       <c r="D20">
-        <v>1.053960844189915</v>
+        <v>1.018143293195683</v>
       </c>
       <c r="E20">
-        <v>1.049149397578805</v>
+        <v>1.012812736296278</v>
       </c>
       <c r="F20">
-        <v>1.059989336471062</v>
+        <v>1.023562759335215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.07032587258998</v>
+        <v>1.048260670594887</v>
       </c>
       <c r="J20">
-        <v>1.064086358234132</v>
+        <v>1.022497237652835</v>
       </c>
       <c r="K20">
-        <v>1.067116875728713</v>
+        <v>1.031874444480049</v>
       </c>
       <c r="L20">
-        <v>1.06237976815358</v>
+        <v>1.026633969531834</v>
       </c>
       <c r="M20">
-        <v>1.073053438720192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.037203564354043</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038057420699774</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033687156755815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030329249372441</v>
+        <v>0.9899385366731213</v>
       </c>
       <c r="D21">
-        <v>1.047995298237396</v>
+        <v>1.014976866311774</v>
       </c>
       <c r="E21">
-        <v>1.042733261143024</v>
+        <v>1.009092782576804</v>
       </c>
       <c r="F21">
-        <v>1.053414591938031</v>
+        <v>1.019958034333715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.066972246103465</v>
+        <v>1.047065778827416</v>
       </c>
       <c r="J21">
-        <v>1.058611455693035</v>
+        <v>1.019863031036615</v>
       </c>
       <c r="K21">
-        <v>1.062121070847144</v>
+        <v>1.0296799461558</v>
       </c>
       <c r="L21">
-        <v>1.056947875348326</v>
+        <v>1.023903913055811</v>
       </c>
       <c r="M21">
-        <v>1.06745006212978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.03457091025213</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035932932324998</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032138796824936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025399951602844</v>
+        <v>0.9868660775269386</v>
       </c>
       <c r="D22">
-        <v>1.044138745648116</v>
+        <v>1.012960469279823</v>
       </c>
       <c r="E22">
-        <v>1.038586968124136</v>
+        <v>1.006748221567225</v>
       </c>
       <c r="F22">
-        <v>1.049166308650725</v>
+        <v>1.017712923943474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.064791400279521</v>
+        <v>1.046296068193557</v>
       </c>
       <c r="J22">
-        <v>1.055064428747206</v>
+        <v>1.01819375484221</v>
       </c>
       <c r="K22">
-        <v>1.058883743681951</v>
+        <v>1.028279476040267</v>
       </c>
       <c r="L22">
-        <v>1.053430900953702</v>
+        <v>1.022187169832231</v>
       </c>
       <c r="M22">
-        <v>1.063822883742734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.032941465871343</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034643326934214</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031135043131028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028027095080061</v>
+        <v>0.9884928140383301</v>
       </c>
       <c r="D23">
-        <v>1.046193615098568</v>
+        <v>1.014022843303647</v>
       </c>
       <c r="E23">
-        <v>1.040796076988091</v>
+        <v>1.007987916041632</v>
       </c>
       <c r="F23">
-        <v>1.051429709070426</v>
+        <v>1.018901549711938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.065954616475261</v>
+        <v>1.04670180879349</v>
       </c>
       <c r="J23">
-        <v>1.056955105401458</v>
+        <v>1.019074345623443</v>
       </c>
       <c r="K23">
-        <v>1.060609400476965</v>
+        <v>1.029015031093814</v>
       </c>
       <c r="L23">
-        <v>1.055305348572707</v>
+        <v>1.023093589591905</v>
       </c>
       <c r="M23">
-        <v>1.065755988585747</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.033803274777726</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035325396173256</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031645442983462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038068992462553</v>
+        <v>0.9947801605626231</v>
       </c>
       <c r="D24">
-        <v>1.054059152515436</v>
+        <v>1.018144018457419</v>
       </c>
       <c r="E24">
-        <v>1.049255157959909</v>
+        <v>1.012797871827346</v>
       </c>
       <c r="F24">
-        <v>1.060097719588095</v>
+        <v>1.0235131641406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.070380926182978</v>
+        <v>1.048248566284262</v>
       </c>
       <c r="J24">
-        <v>1.064176456511088</v>
+        <v>1.022480635182145</v>
       </c>
       <c r="K24">
-        <v>1.067199077117899</v>
+        <v>1.031859824673624</v>
       </c>
       <c r="L24">
-        <v>1.062469193795025</v>
+        <v>1.026603909106959</v>
       </c>
       <c r="M24">
-        <v>1.073145701000793</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.03713957218821</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037965866104627</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033649334143153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04915863372895</v>
+        <v>1.001823479772596</v>
       </c>
       <c r="D25">
-        <v>1.062764346389421</v>
+        <v>1.022772898364635</v>
       </c>
       <c r="E25">
-        <v>1.058624112099709</v>
+        <v>1.018219083185139</v>
       </c>
       <c r="F25">
-        <v>1.069700156100093</v>
+        <v>1.028715658817715</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07522648657678</v>
+        <v>1.04992556006356</v>
       </c>
       <c r="J25">
-        <v>1.072137767937351</v>
+        <v>1.026289631998974</v>
       </c>
       <c r="K25">
-        <v>1.074460635271692</v>
+        <v>1.035027688724639</v>
       </c>
       <c r="L25">
-        <v>1.070375759931599</v>
+        <v>1.030541004789417</v>
       </c>
       <c r="M25">
-        <v>1.081304909882459</v>
+        <v>1.040883975313379</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040929314463871</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03588631670485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_28/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007229764985905</v>
+        <v>1.006520966938196</v>
       </c>
       <c r="D2">
-        <v>1.026318188084373</v>
+        <v>1.025279620756046</v>
       </c>
       <c r="E2">
-        <v>1.022402614378259</v>
+        <v>1.021836600414592</v>
       </c>
       <c r="F2">
-        <v>1.032738388962148</v>
+        <v>1.032268955286802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051156531181122</v>
+        <v>1.050630157241276</v>
       </c>
       <c r="J2">
-        <v>1.029196364569939</v>
+        <v>1.028508371104281</v>
       </c>
       <c r="K2">
-        <v>1.037422651891938</v>
+        <v>1.036397655743918</v>
       </c>
       <c r="L2">
-        <v>1.033558424347711</v>
+        <v>1.032999873528619</v>
       </c>
       <c r="M2">
-        <v>1.043759716349943</v>
+        <v>1.043296317638106</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043205265749274</v>
+        <v>1.042838518016117</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037531321684731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036815345906589</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021777161989704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011067447242941</v>
+        <v>1.010241751020492</v>
       </c>
       <c r="D3">
-        <v>1.028846622914539</v>
+        <v>1.027637872770115</v>
       </c>
       <c r="E3">
-        <v>1.025386854694429</v>
+        <v>1.024724654295018</v>
       </c>
       <c r="F3">
-        <v>1.035607180007504</v>
+        <v>1.035060857512688</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052007884325126</v>
+        <v>1.051395206492546</v>
       </c>
       <c r="J3">
-        <v>1.031260883037605</v>
+        <v>1.030457056706712</v>
       </c>
       <c r="K3">
-        <v>1.039123244995017</v>
+        <v>1.037928924956597</v>
       </c>
       <c r="L3">
-        <v>1.035704892131307</v>
+        <v>1.035050658213625</v>
       </c>
       <c r="M3">
-        <v>1.045803863020083</v>
+        <v>1.045263952418213</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04482306294634</v>
+        <v>1.044395762322901</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038731124132523</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037895143460581</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022083381239752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013506475424617</v>
+        <v>1.012607252528181</v>
       </c>
       <c r="D4">
-        <v>1.03045509742793</v>
+        <v>1.029138758982749</v>
       </c>
       <c r="E4">
-        <v>1.027289426831272</v>
+        <v>1.026566667840016</v>
       </c>
       <c r="F4">
-        <v>1.037436880713859</v>
+        <v>1.03684213056772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052535928740063</v>
+        <v>1.051868581097483</v>
       </c>
       <c r="J4">
-        <v>1.032570882651866</v>
+        <v>1.031693870469356</v>
       </c>
       <c r="K4">
-        <v>1.040199342403452</v>
+        <v>1.038897778381934</v>
       </c>
       <c r="L4">
-        <v>1.037069281722654</v>
+        <v>1.03635469083635</v>
       </c>
       <c r="M4">
-        <v>1.047103533437029</v>
+        <v>1.046515343015296</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04585165809856</v>
+        <v>1.045386148092096</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039492915559811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038581186167548</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022274635240137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0145243740026</v>
+        <v>1.013594669285538</v>
       </c>
       <c r="D5">
-        <v>1.031128557674519</v>
+        <v>1.029767536398573</v>
       </c>
       <c r="E5">
-        <v>1.028085044758475</v>
+        <v>1.027337159401355</v>
       </c>
       <c r="F5">
-        <v>1.03820168850607</v>
+        <v>1.037586846833257</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052754370163188</v>
+        <v>1.052064291311413</v>
       </c>
       <c r="J5">
-        <v>1.033118292008966</v>
+        <v>1.03221086687223</v>
       </c>
       <c r="K5">
-        <v>1.040649704705758</v>
+        <v>1.039303555837804</v>
       </c>
       <c r="L5">
-        <v>1.037639516295648</v>
+        <v>1.036899856932629</v>
       </c>
       <c r="M5">
-        <v>1.047646314170993</v>
+        <v>1.047038073484419</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046281229373054</v>
+        <v>1.045799851314133</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039818532397442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038875990804003</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022354547289924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014698093886895</v>
+        <v>1.013763232606392</v>
       </c>
       <c r="D6">
-        <v>1.031245768577642</v>
+        <v>1.029877232802763</v>
       </c>
       <c r="E6">
-        <v>1.028221164614783</v>
+        <v>1.0274690169209</v>
       </c>
       <c r="F6">
-        <v>1.038331931903234</v>
+        <v>1.037713690362606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052792978241792</v>
+        <v>1.052099075158371</v>
       </c>
       <c r="J6">
-        <v>1.033213176884097</v>
+        <v>1.03230060390799</v>
       </c>
       <c r="K6">
-        <v>1.040729450972332</v>
+        <v>1.03937580173618</v>
       </c>
       <c r="L6">
-        <v>1.037737812842001</v>
+        <v>1.036993899977863</v>
       </c>
       <c r="M6">
-        <v>1.04773930182697</v>
+        <v>1.04712766743651</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046354822280342</v>
+        <v>1.045870758400322</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039883665976722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038936692451963</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022369247322963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013529235543894</v>
+        <v>1.012629414989429</v>
       </c>
       <c r="D7">
-        <v>1.030476165768183</v>
+        <v>1.029159099739442</v>
       </c>
       <c r="E7">
-        <v>1.027307901695425</v>
+        <v>1.026584618420471</v>
       </c>
       <c r="F7">
-        <v>1.03745297888708</v>
+        <v>1.036857833896726</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052544863050019</v>
+        <v>1.051877145417514</v>
       </c>
       <c r="J7">
-        <v>1.032587114796322</v>
+        <v>1.031709510284038</v>
       </c>
       <c r="K7">
-        <v>1.040217291843914</v>
+        <v>1.038915002744211</v>
       </c>
       <c r="L7">
-        <v>1.037084653287373</v>
+        <v>1.036369540957553</v>
       </c>
       <c r="M7">
-        <v>1.047116597201756</v>
+        <v>1.046528013858906</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045861997116347</v>
+        <v>1.045396176147812</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039525725789699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03861548885217</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022279392756178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,105 +811,123 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008547314893015</v>
+        <v>1.007798274603256</v>
       </c>
       <c r="D8">
-        <v>1.027193195622951</v>
+        <v>1.026096388743036</v>
       </c>
       <c r="E8">
-        <v>1.023426820471073</v>
+        <v>1.022827661292788</v>
       </c>
       <c r="F8">
-        <v>1.033720709333389</v>
+        <v>1.033224817702961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051456320714331</v>
+        <v>1.050900433770886</v>
       </c>
       <c r="J8">
-        <v>1.029910449964853</v>
+        <v>1.029182658770639</v>
       </c>
       <c r="K8">
-        <v>1.038016997669587</v>
+        <v>1.036934100132826</v>
       </c>
       <c r="L8">
-        <v>1.034298542122256</v>
+        <v>1.033707046710123</v>
       </c>
       <c r="M8">
-        <v>1.044462492514131</v>
+        <v>1.04397278647843</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043761463673835</v>
+        <v>1.043373895820695</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037974506242323</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037219863440716</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021886604434558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9994006718758544</v>
+        <v>0.998935037605244</v>
       </c>
       <c r="D9">
-        <v>1.021170749907851</v>
+        <v>1.020482749533321</v>
       </c>
       <c r="E9">
-        <v>1.016348987200047</v>
+        <v>1.01598258498219</v>
       </c>
       <c r="F9">
-        <v>1.026923087671949</v>
+        <v>1.026613168076309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049350511446099</v>
+        <v>1.04900131361784</v>
       </c>
       <c r="J9">
-        <v>1.024974611729599</v>
+        <v>1.024525458569862</v>
       </c>
       <c r="K9">
-        <v>1.033929436947469</v>
+        <v>1.033252025010997</v>
       </c>
       <c r="L9">
-        <v>1.029182267692717</v>
+        <v>1.028821570774479</v>
       </c>
       <c r="M9">
-        <v>1.039593952804102</v>
+        <v>1.03928873283709</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039908348026069</v>
+        <v>1.039666786647514</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03508113794218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034612925542794</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021134701945309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9931085312303443</v>
+        <v>0.9928414053564689</v>
       </c>
       <c r="D10">
-        <v>1.017045698811428</v>
+        <v>1.016641174472734</v>
       </c>
       <c r="E10">
-        <v>1.011549659413847</v>
+        <v>1.011345363193154</v>
       </c>
       <c r="F10">
-        <v>1.022365435706439</v>
+        <v>1.022185342405957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047852841681138</v>
+        <v>1.047646453585328</v>
       </c>
       <c r="J10">
-        <v>1.021598265134008</v>
+        <v>1.021341951535393</v>
       </c>
       <c r="K10">
-        <v>1.03111386034928</v>
+        <v>1.030716330157001</v>
       </c>
       <c r="L10">
-        <v>1.025713466090765</v>
+        <v>1.025512751111309</v>
       </c>
       <c r="M10">
-        <v>1.036342285175069</v>
+        <v>1.036165263059035</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037386371010334</v>
+        <v>1.037246278010677</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033107193728834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.0328385656857</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020608245417636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9908280116113778</v>
+        <v>0.9906207340483497</v>
       </c>
       <c r="D11">
-        <v>1.015585053871197</v>
+        <v>1.015273271792597</v>
       </c>
       <c r="E11">
-        <v>1.010091017197106</v>
+        <v>1.009932784447665</v>
       </c>
       <c r="F11">
-        <v>1.021362330249844</v>
+        <v>1.021221676410664</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047415180644316</v>
+        <v>1.047255994696741</v>
       </c>
       <c r="J11">
-        <v>1.020587397435741</v>
+        <v>1.020388974815646</v>
       </c>
       <c r="K11">
-        <v>1.030218924575855</v>
+        <v>1.029912792157498</v>
       </c>
       <c r="L11">
-        <v>1.024825108185115</v>
+        <v>1.024669782906628</v>
       </c>
       <c r="M11">
-        <v>1.035892323895416</v>
+        <v>1.035754180927779</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037466994957116</v>
+        <v>1.037357725518718</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032507380449622</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032306605757478</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020468872553639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9901497856731081</v>
+        <v>0.9899552476079643</v>
       </c>
       <c r="D12">
-        <v>1.015156740620556</v>
+        <v>1.014868451644293</v>
       </c>
       <c r="E12">
-        <v>1.009775457000523</v>
+        <v>1.009625598304533</v>
       </c>
       <c r="F12">
-        <v>1.021345235131389</v>
+        <v>1.021213327199843</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047330221619694</v>
+        <v>1.04718330097829</v>
       </c>
       <c r="J12">
-        <v>1.020376954911401</v>
+        <v>1.02019088828534</v>
       </c>
       <c r="K12">
-        <v>1.029999210451977</v>
+        <v>1.029716233794323</v>
       </c>
       <c r="L12">
-        <v>1.024717740833753</v>
+        <v>1.024570681646849</v>
       </c>
       <c r="M12">
-        <v>1.036074609782982</v>
+        <v>1.035945093881759</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037937855168411</v>
+        <v>1.037835444380609</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032352034480464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032167634620839</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020447388149392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9906732311327857</v>
+        <v>0.9904552854983449</v>
       </c>
       <c r="D13">
-        <v>1.015510004216197</v>
+        <v>1.01519271519447</v>
       </c>
       <c r="E13">
-        <v>1.010331563705231</v>
+        <v>1.010161133343036</v>
       </c>
       <c r="F13">
-        <v>1.022106336963331</v>
+        <v>1.021959756520806</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047524836983877</v>
+        <v>1.047363747312748</v>
       </c>
       <c r="J13">
-        <v>1.020783543500567</v>
+        <v>1.020575039864265</v>
       </c>
       <c r="K13">
-        <v>1.030302912549282</v>
+        <v>1.029991445603568</v>
       </c>
       <c r="L13">
-        <v>1.02522008990005</v>
+        <v>1.025052828204313</v>
       </c>
       <c r="M13">
-        <v>1.036779270531928</v>
+        <v>1.036635334236527</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03877184227683</v>
+        <v>1.038658057631638</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032564262115981</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032359471126481</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020521703596307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9915830524605554</v>
+        <v>0.9913327341675345</v>
       </c>
       <c r="D14">
-        <v>1.016111814665364</v>
+        <v>1.015750751122237</v>
       </c>
       <c r="E14">
-        <v>1.011113439461534</v>
+        <v>1.010915874182672</v>
       </c>
       <c r="F14">
-        <v>1.022989089534551</v>
+        <v>1.02282191539162</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047787286060046</v>
+        <v>1.047604444029718</v>
       </c>
       <c r="J14">
-        <v>1.021346388563492</v>
+        <v>1.021106756664068</v>
       </c>
       <c r="K14">
-        <v>1.030752729545231</v>
+        <v>1.030398208799472</v>
       </c>
       <c r="L14">
-        <v>1.025845470471847</v>
+        <v>1.025651530751284</v>
       </c>
       <c r="M14">
-        <v>1.037506526483403</v>
+        <v>1.037342328307133</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039520093439643</v>
+        <v>1.039390308877378</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032883728747548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032648630411978</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020617127315444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9920720936767311</v>
+        <v>0.9918056672819098</v>
       </c>
       <c r="D15">
-        <v>1.016434933258654</v>
+        <v>1.016051356764896</v>
       </c>
       <c r="E15">
-        <v>1.01150346721114</v>
+        <v>1.01129267152767</v>
       </c>
       <c r="F15">
-        <v>1.023389701017336</v>
+        <v>1.023212170048482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.0479161507325</v>
+        <v>1.047722040905385</v>
       </c>
       <c r="J15">
-        <v>1.021625332661237</v>
+        <v>1.021370179562213</v>
       </c>
       <c r="K15">
-        <v>1.03098318235233</v>
+        <v>1.030606503611978</v>
       </c>
       <c r="L15">
-        <v>1.026140916398888</v>
+        <v>1.025933958807275</v>
       </c>
       <c r="M15">
-        <v>1.037814047323024</v>
+        <v>1.037639651993182</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039800699129684</v>
+        <v>1.039662858215979</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033052556754299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032802362222718</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020663264588745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9946387592320838</v>
+        <v>0.9942920390931967</v>
       </c>
       <c r="D16">
-        <v>1.018118365196978</v>
+        <v>1.01761931609199</v>
       </c>
       <c r="E16">
-        <v>1.013435333185871</v>
+        <v>1.013159693035056</v>
       </c>
       <c r="F16">
-        <v>1.025206939223747</v>
+        <v>1.024977077890447</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048533836653596</v>
+        <v>1.048281553182947</v>
       </c>
       <c r="J16">
-        <v>1.022989241712895</v>
+        <v>1.022656451136976</v>
       </c>
       <c r="K16">
-        <v>1.03213227488901</v>
+        <v>1.03164180660463</v>
       </c>
       <c r="L16">
-        <v>1.027530194855441</v>
+        <v>1.027259349673951</v>
       </c>
       <c r="M16">
-        <v>1.03910012929934</v>
+        <v>1.03887414874828</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040778498580826</v>
+        <v>1.040599879920391</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033868185375618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033537833040445</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020879209547397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9961328802991962</v>
+        <v>0.9957415250256151</v>
       </c>
       <c r="D17">
-        <v>1.019096297852939</v>
+        <v>1.01853165883802</v>
       </c>
       <c r="E17">
-        <v>1.014509287207951</v>
+        <v>1.014198001620597</v>
       </c>
       <c r="F17">
-        <v>1.026134389491312</v>
+        <v>1.025875097622844</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048867088867369</v>
+        <v>1.048581584578783</v>
       </c>
       <c r="J17">
-        <v>1.023740481649861</v>
+        <v>1.023364339511107</v>
       </c>
       <c r="K17">
-        <v>1.032777584309257</v>
+        <v>1.032222379889979</v>
       </c>
       <c r="L17">
-        <v>1.028267610426351</v>
+        <v>1.027961585317865</v>
       </c>
       <c r="M17">
-        <v>1.039699196353792</v>
+        <v>1.039444159271146</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041122993224246</v>
+        <v>1.040921387715208</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03432703917402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033951161506558</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020994114743744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9968295023679284</v>
+        <v>0.9964210134150355</v>
       </c>
       <c r="D18">
-        <v>1.019541987740252</v>
+        <v>1.018949705137336</v>
       </c>
       <c r="E18">
-        <v>1.014914375829485</v>
+        <v>1.014590248346352</v>
       </c>
       <c r="F18">
-        <v>1.026331083500694</v>
+        <v>1.026060033611587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048977938129957</v>
+        <v>1.048678178824325</v>
       </c>
       <c r="J18">
-        <v>1.024012824701813</v>
+        <v>1.023619915756891</v>
       </c>
       <c r="K18">
-        <v>1.033031716427431</v>
+        <v>1.032449166838199</v>
       </c>
       <c r="L18">
-        <v>1.028480539671112</v>
+        <v>1.028161799513008</v>
       </c>
       <c r="M18">
-        <v>1.039710276471336</v>
+        <v>1.039443603658939</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040894087147708</v>
+        <v>1.040683239706002</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034495053492367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034098701579445</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021027705855549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9968067483460353</v>
+        <v>0.9964067856535062</v>
       </c>
       <c r="D19">
-        <v>1.019514106187798</v>
+        <v>1.018929555345687</v>
       </c>
       <c r="E19">
-        <v>1.014710084801449</v>
+        <v>1.01439444448366</v>
       </c>
       <c r="F19">
-        <v>1.02585772041411</v>
+        <v>1.025591585461427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048893471380391</v>
+        <v>1.04859716719192</v>
       </c>
       <c r="J19">
-        <v>1.023855601801298</v>
+        <v>1.023470805415213</v>
       </c>
       <c r="K19">
-        <v>1.032941508391135</v>
+        <v>1.032366512796483</v>
       </c>
       <c r="L19">
-        <v>1.028216435262231</v>
+        <v>1.027906015805574</v>
       </c>
       <c r="M19">
-        <v>1.039182326385888</v>
+        <v>1.038920471276934</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04015112540426</v>
+        <v>1.039944019448875</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03443768396412</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034047299502073</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020991195115511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9947629323602073</v>
+        <v>0.9944429916133315</v>
       </c>
       <c r="D20">
-        <v>1.018143293195683</v>
+        <v>1.017664346279059</v>
       </c>
       <c r="E20">
-        <v>1.012812736296278</v>
+        <v>1.012565222667809</v>
       </c>
       <c r="F20">
-        <v>1.023562759335215</v>
+        <v>1.023348153606573</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048260670594887</v>
+        <v>1.048016826922506</v>
       </c>
       <c r="J20">
-        <v>1.022497237652835</v>
+        <v>1.022189820141275</v>
       </c>
       <c r="K20">
-        <v>1.031874444480049</v>
+        <v>1.031403541611357</v>
       </c>
       <c r="L20">
-        <v>1.026633969531834</v>
+        <v>1.026390668431515</v>
       </c>
       <c r="M20">
-        <v>1.037203564354043</v>
+        <v>1.036992512827938</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038057420699774</v>
+        <v>1.037890395274542</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033687156755815</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033370764286597</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02075510422017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9899385366731213</v>
+        <v>0.9897754342735432</v>
       </c>
       <c r="D21">
-        <v>1.014976866311774</v>
+        <v>1.014718715456727</v>
       </c>
       <c r="E21">
-        <v>1.009092782576804</v>
+        <v>1.008973557549806</v>
       </c>
       <c r="F21">
-        <v>1.019958034333715</v>
+        <v>1.019845726469089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047065778827416</v>
+        <v>1.046932852469371</v>
       </c>
       <c r="J21">
-        <v>1.019863031036615</v>
+        <v>1.019706948929706</v>
       </c>
       <c r="K21">
-        <v>1.0296799461558</v>
+        <v>1.029426501569253</v>
       </c>
       <c r="L21">
-        <v>1.023903913055811</v>
+        <v>1.023786894366147</v>
       </c>
       <c r="M21">
-        <v>1.03457091025213</v>
+        <v>1.034460623551035</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035932932324998</v>
+        <v>1.035845647232532</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032138796824936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031976494882256</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020333833378938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9868660775269386</v>
+        <v>0.9868035560380677</v>
       </c>
       <c r="D22">
-        <v>1.012960469279823</v>
+        <v>1.012842990873821</v>
       </c>
       <c r="E22">
-        <v>1.006748221567225</v>
+        <v>1.006710981080741</v>
       </c>
       <c r="F22">
-        <v>1.017712923943474</v>
+        <v>1.017666119134829</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046296068193557</v>
+        <v>1.046233723361212</v>
       </c>
       <c r="J22">
-        <v>1.01819375484221</v>
+        <v>1.018134083655871</v>
       </c>
       <c r="K22">
-        <v>1.028279476040267</v>
+        <v>1.028164247955867</v>
       </c>
       <c r="L22">
-        <v>1.022187169832231</v>
+        <v>1.022150654210825</v>
       </c>
       <c r="M22">
-        <v>1.032941465871343</v>
+        <v>1.032895546625842</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034643326934214</v>
+        <v>1.034606984630789</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031135043131028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031069166401591</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020062871655367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9884928140383301</v>
+        <v>0.9883769831909771</v>
       </c>
       <c r="D23">
-        <v>1.014022843303647</v>
+        <v>1.013830653540333</v>
       </c>
       <c r="E23">
-        <v>1.007987916041632</v>
+        <v>1.007907297375187</v>
       </c>
       <c r="F23">
-        <v>1.018901549711938</v>
+        <v>1.018820049456176</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04670180879349</v>
+        <v>1.046601993714017</v>
       </c>
       <c r="J23">
-        <v>1.019074345623443</v>
+        <v>1.018963638028803</v>
       </c>
       <c r="K23">
-        <v>1.029015031093814</v>
+        <v>1.028826428244094</v>
       </c>
       <c r="L23">
-        <v>1.023093589591905</v>
+        <v>1.023014498971366</v>
       </c>
       <c r="M23">
-        <v>1.033803274777726</v>
+        <v>1.033723276456292</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035325396173256</v>
+        <v>1.03526208240389</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031645442983462</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031526736963259</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020204212777991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9947801605626231</v>
+        <v>0.9944610392553541</v>
       </c>
       <c r="D24">
-        <v>1.018144018457419</v>
+        <v>1.017665147629021</v>
       </c>
       <c r="E24">
-        <v>1.012797871827346</v>
+        <v>1.012551337415038</v>
       </c>
       <c r="F24">
-        <v>1.0235131641406</v>
+        <v>1.023299064392256</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048248566284262</v>
+        <v>1.048004711464769</v>
       </c>
       <c r="J24">
-        <v>1.022480635182145</v>
+        <v>1.022173986839271</v>
       </c>
       <c r="K24">
-        <v>1.031859824673624</v>
+        <v>1.031388986283263</v>
       </c>
       <c r="L24">
-        <v>1.026603909106959</v>
+        <v>1.026361565320531</v>
       </c>
       <c r="M24">
-        <v>1.03713957218821</v>
+        <v>1.036929014161204</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037965866104627</v>
+        <v>1.037799222935724</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033649334143153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033330305302479</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020747502491563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001823479772596</v>
+        <v>1.00128190556808</v>
       </c>
       <c r="D25">
-        <v>1.022772898364635</v>
+        <v>1.021976341457866</v>
       </c>
       <c r="E25">
-        <v>1.018219083185139</v>
+        <v>1.01779033039799</v>
       </c>
       <c r="F25">
-        <v>1.028715658817715</v>
+        <v>1.028355975643062</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04992556006356</v>
+        <v>1.049521575277944</v>
       </c>
       <c r="J25">
-        <v>1.026289631998974</v>
+        <v>1.025766205358196</v>
       </c>
       <c r="K25">
-        <v>1.035027688724639</v>
+        <v>1.034242819655492</v>
       </c>
       <c r="L25">
-        <v>1.030541004789417</v>
+        <v>1.030118611902503</v>
       </c>
       <c r="M25">
-        <v>1.040883975313379</v>
+        <v>1.040529489922343</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040929314463871</v>
+        <v>1.040648763156859</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03588631670485</v>
+        <v>1.035344936684692</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021341274617992</v>
       </c>
     </row>
   </sheetData>
